--- a/base_torneos.xlsx
+++ b/base_torneos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\GitHub\shiny_futbol\shiny_futbol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\GitHub\shiny_futbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="58">
   <si>
     <t>Pos</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Deportes Ovalle</t>
+  </si>
+  <si>
+    <t>Ferrobádminton</t>
   </si>
 </sst>
 </file>
@@ -515,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1191"/>
+  <dimension ref="A1:K1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
+      <selection activeCell="B1246" sqref="B1246"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42209,6 +42214,2246 @@
         <v>1969</v>
       </c>
     </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>1</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1192">
+        <v>14</v>
+      </c>
+      <c r="D1192">
+        <v>9</v>
+      </c>
+      <c r="E1192">
+        <v>5</v>
+      </c>
+      <c r="F1192">
+        <v>0</v>
+      </c>
+      <c r="G1192">
+        <v>37</v>
+      </c>
+      <c r="H1192">
+        <v>17</v>
+      </c>
+      <c r="I1192">
+        <v>20</v>
+      </c>
+      <c r="J1192">
+        <v>23</v>
+      </c>
+      <c r="K1192">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>2</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1193">
+        <v>14</v>
+      </c>
+      <c r="D1193">
+        <v>8</v>
+      </c>
+      <c r="E1193">
+        <v>2</v>
+      </c>
+      <c r="F1193">
+        <v>4</v>
+      </c>
+      <c r="G1193">
+        <v>32</v>
+      </c>
+      <c r="H1193">
+        <v>25</v>
+      </c>
+      <c r="I1193">
+        <v>7</v>
+      </c>
+      <c r="J1193">
+        <v>18</v>
+      </c>
+      <c r="K1193">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>3</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1194">
+        <v>14</v>
+      </c>
+      <c r="D1194">
+        <v>5</v>
+      </c>
+      <c r="E1194">
+        <v>6</v>
+      </c>
+      <c r="F1194">
+        <v>3</v>
+      </c>
+      <c r="G1194">
+        <v>29</v>
+      </c>
+      <c r="H1194">
+        <v>24</v>
+      </c>
+      <c r="I1194">
+        <v>5</v>
+      </c>
+      <c r="J1194">
+        <v>16</v>
+      </c>
+      <c r="K1194">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>4</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1195">
+        <v>14</v>
+      </c>
+      <c r="D1195">
+        <v>5</v>
+      </c>
+      <c r="E1195">
+        <v>5</v>
+      </c>
+      <c r="F1195">
+        <v>4</v>
+      </c>
+      <c r="G1195">
+        <v>16</v>
+      </c>
+      <c r="H1195">
+        <v>22</v>
+      </c>
+      <c r="I1195">
+        <v>-6</v>
+      </c>
+      <c r="J1195">
+        <v>15</v>
+      </c>
+      <c r="K1195">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>5</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1196">
+        <v>14</v>
+      </c>
+      <c r="D1196">
+        <v>4</v>
+      </c>
+      <c r="E1196">
+        <v>4</v>
+      </c>
+      <c r="F1196">
+        <v>6</v>
+      </c>
+      <c r="G1196">
+        <v>27</v>
+      </c>
+      <c r="H1196">
+        <v>22</v>
+      </c>
+      <c r="I1196">
+        <v>5</v>
+      </c>
+      <c r="J1196">
+        <v>12</v>
+      </c>
+      <c r="K1196">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>6</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1197">
+        <v>14</v>
+      </c>
+      <c r="D1197">
+        <v>3</v>
+      </c>
+      <c r="E1197">
+        <v>5</v>
+      </c>
+      <c r="F1197">
+        <v>6</v>
+      </c>
+      <c r="G1197">
+        <v>14</v>
+      </c>
+      <c r="H1197">
+        <v>21</v>
+      </c>
+      <c r="I1197">
+        <v>-7</v>
+      </c>
+      <c r="J1197">
+        <v>11</v>
+      </c>
+      <c r="K1197">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>7</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1198">
+        <v>14</v>
+      </c>
+      <c r="D1198">
+        <v>3</v>
+      </c>
+      <c r="E1198">
+        <v>3</v>
+      </c>
+      <c r="F1198">
+        <v>8</v>
+      </c>
+      <c r="G1198">
+        <v>19</v>
+      </c>
+      <c r="H1198">
+        <v>35</v>
+      </c>
+      <c r="I1198">
+        <v>-16</v>
+      </c>
+      <c r="J1198">
+        <v>9</v>
+      </c>
+      <c r="K1198">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>8</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1199">
+        <v>14</v>
+      </c>
+      <c r="D1199">
+        <v>2</v>
+      </c>
+      <c r="E1199">
+        <v>4</v>
+      </c>
+      <c r="F1199">
+        <v>8</v>
+      </c>
+      <c r="G1199">
+        <v>18</v>
+      </c>
+      <c r="H1199">
+        <v>26</v>
+      </c>
+      <c r="I1199">
+        <v>-8</v>
+      </c>
+      <c r="J1199">
+        <v>8</v>
+      </c>
+      <c r="K1199">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>1</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1200">
+        <v>6</v>
+      </c>
+      <c r="D1200">
+        <v>5</v>
+      </c>
+      <c r="E1200">
+        <v>0</v>
+      </c>
+      <c r="F1200">
+        <v>1</v>
+      </c>
+      <c r="G1200">
+        <v>24</v>
+      </c>
+      <c r="H1200">
+        <v>11</v>
+      </c>
+      <c r="I1200">
+        <v>13</v>
+      </c>
+      <c r="J1200">
+        <v>10</v>
+      </c>
+      <c r="K1200">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>2</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1201">
+        <v>6</v>
+      </c>
+      <c r="D1201">
+        <v>4</v>
+      </c>
+      <c r="E1201">
+        <v>1</v>
+      </c>
+      <c r="F1201">
+        <v>1</v>
+      </c>
+      <c r="G1201">
+        <v>17</v>
+      </c>
+      <c r="H1201">
+        <v>10</v>
+      </c>
+      <c r="I1201">
+        <v>7</v>
+      </c>
+      <c r="J1201">
+        <v>9</v>
+      </c>
+      <c r="K1201">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>3</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1202">
+        <v>6</v>
+      </c>
+      <c r="D1202">
+        <v>1</v>
+      </c>
+      <c r="E1202">
+        <v>1</v>
+      </c>
+      <c r="F1202">
+        <v>4</v>
+      </c>
+      <c r="G1202">
+        <v>10</v>
+      </c>
+      <c r="H1202">
+        <v>15</v>
+      </c>
+      <c r="I1202">
+        <v>-5</v>
+      </c>
+      <c r="J1202">
+        <v>3</v>
+      </c>
+      <c r="K1202">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>4</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1203">
+        <v>6</v>
+      </c>
+      <c r="D1203">
+        <v>1</v>
+      </c>
+      <c r="E1203">
+        <v>0</v>
+      </c>
+      <c r="F1203">
+        <v>5</v>
+      </c>
+      <c r="G1203">
+        <v>7</v>
+      </c>
+      <c r="H1203">
+        <v>22</v>
+      </c>
+      <c r="I1203">
+        <v>-15</v>
+      </c>
+      <c r="J1203">
+        <v>2</v>
+      </c>
+      <c r="K1203">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>1</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1204">
+        <v>6</v>
+      </c>
+      <c r="D1204">
+        <v>4</v>
+      </c>
+      <c r="E1204">
+        <v>0</v>
+      </c>
+      <c r="F1204">
+        <v>2</v>
+      </c>
+      <c r="G1204">
+        <v>13</v>
+      </c>
+      <c r="H1204">
+        <v>9</v>
+      </c>
+      <c r="I1204">
+        <v>4</v>
+      </c>
+      <c r="J1204">
+        <v>8</v>
+      </c>
+      <c r="K1204">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>2</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1205">
+        <v>6</v>
+      </c>
+      <c r="D1205">
+        <v>4</v>
+      </c>
+      <c r="E1205">
+        <v>0</v>
+      </c>
+      <c r="F1205">
+        <v>2</v>
+      </c>
+      <c r="G1205">
+        <v>10</v>
+      </c>
+      <c r="H1205">
+        <v>8</v>
+      </c>
+      <c r="I1205">
+        <v>2</v>
+      </c>
+      <c r="J1205">
+        <v>8</v>
+      </c>
+      <c r="K1205">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>3</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1206">
+        <v>6</v>
+      </c>
+      <c r="D1206">
+        <v>2</v>
+      </c>
+      <c r="E1206">
+        <v>1</v>
+      </c>
+      <c r="F1206">
+        <v>3</v>
+      </c>
+      <c r="G1206">
+        <v>13</v>
+      </c>
+      <c r="H1206">
+        <v>12</v>
+      </c>
+      <c r="I1206">
+        <v>1</v>
+      </c>
+      <c r="J1206">
+        <v>5</v>
+      </c>
+      <c r="K1206">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>4</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1207">
+        <v>6</v>
+      </c>
+      <c r="D1207">
+        <v>1</v>
+      </c>
+      <c r="E1207">
+        <v>1</v>
+      </c>
+      <c r="F1207">
+        <v>4</v>
+      </c>
+      <c r="G1207">
+        <v>7</v>
+      </c>
+      <c r="H1207">
+        <v>14</v>
+      </c>
+      <c r="I1207">
+        <v>-7</v>
+      </c>
+      <c r="J1207">
+        <v>3</v>
+      </c>
+      <c r="K1207">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>1</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1208">
+        <v>18</v>
+      </c>
+      <c r="D1208">
+        <v>11</v>
+      </c>
+      <c r="E1208">
+        <v>3</v>
+      </c>
+      <c r="F1208">
+        <v>4</v>
+      </c>
+      <c r="G1208">
+        <v>37</v>
+      </c>
+      <c r="H1208">
+        <v>20</v>
+      </c>
+      <c r="I1208">
+        <v>17</v>
+      </c>
+      <c r="J1208">
+        <v>25</v>
+      </c>
+      <c r="K1208">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>2</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1209">
+        <v>18</v>
+      </c>
+      <c r="D1209">
+        <v>10</v>
+      </c>
+      <c r="E1209">
+        <v>4</v>
+      </c>
+      <c r="F1209">
+        <v>4</v>
+      </c>
+      <c r="G1209">
+        <v>42</v>
+      </c>
+      <c r="H1209">
+        <v>25</v>
+      </c>
+      <c r="I1209">
+        <v>17</v>
+      </c>
+      <c r="J1209">
+        <v>24</v>
+      </c>
+      <c r="K1209">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>3</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1210">
+        <v>18</v>
+      </c>
+      <c r="D1210">
+        <v>9</v>
+      </c>
+      <c r="E1210">
+        <v>6</v>
+      </c>
+      <c r="F1210">
+        <v>3</v>
+      </c>
+      <c r="G1210">
+        <v>31</v>
+      </c>
+      <c r="H1210">
+        <v>17</v>
+      </c>
+      <c r="I1210">
+        <v>14</v>
+      </c>
+      <c r="J1210">
+        <v>24</v>
+      </c>
+      <c r="K1210">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>4</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1211">
+        <v>18</v>
+      </c>
+      <c r="D1211">
+        <v>7</v>
+      </c>
+      <c r="E1211">
+        <v>6</v>
+      </c>
+      <c r="F1211">
+        <v>5</v>
+      </c>
+      <c r="G1211">
+        <v>37</v>
+      </c>
+      <c r="H1211">
+        <v>34</v>
+      </c>
+      <c r="I1211">
+        <v>3</v>
+      </c>
+      <c r="J1211">
+        <v>20</v>
+      </c>
+      <c r="K1211">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>5</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1212">
+        <v>18</v>
+      </c>
+      <c r="D1212">
+        <v>7</v>
+      </c>
+      <c r="E1212">
+        <v>3</v>
+      </c>
+      <c r="F1212">
+        <v>8</v>
+      </c>
+      <c r="G1212">
+        <v>18</v>
+      </c>
+      <c r="H1212">
+        <v>20</v>
+      </c>
+      <c r="I1212">
+        <v>-2</v>
+      </c>
+      <c r="J1212">
+        <v>17</v>
+      </c>
+      <c r="K1212">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>6</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1213">
+        <v>18</v>
+      </c>
+      <c r="D1213">
+        <v>5</v>
+      </c>
+      <c r="E1213">
+        <v>5</v>
+      </c>
+      <c r="F1213">
+        <v>8</v>
+      </c>
+      <c r="G1213">
+        <v>20</v>
+      </c>
+      <c r="H1213">
+        <v>26</v>
+      </c>
+      <c r="I1213">
+        <v>-6</v>
+      </c>
+      <c r="J1213">
+        <v>15</v>
+      </c>
+      <c r="K1213">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>7</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1214">
+        <v>18</v>
+      </c>
+      <c r="D1214">
+        <v>5</v>
+      </c>
+      <c r="E1214">
+        <v>5</v>
+      </c>
+      <c r="F1214">
+        <v>8</v>
+      </c>
+      <c r="G1214">
+        <v>29</v>
+      </c>
+      <c r="H1214">
+        <v>36</v>
+      </c>
+      <c r="I1214">
+        <v>-7</v>
+      </c>
+      <c r="J1214">
+        <v>15</v>
+      </c>
+      <c r="K1214">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>8</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1215">
+        <v>18</v>
+      </c>
+      <c r="D1215">
+        <v>4</v>
+      </c>
+      <c r="E1215">
+        <v>6</v>
+      </c>
+      <c r="F1215">
+        <v>8</v>
+      </c>
+      <c r="G1215">
+        <v>21</v>
+      </c>
+      <c r="H1215">
+        <v>28</v>
+      </c>
+      <c r="I1215">
+        <v>-7</v>
+      </c>
+      <c r="J1215">
+        <v>14</v>
+      </c>
+      <c r="K1215">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>9</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1216">
+        <v>18</v>
+      </c>
+      <c r="D1216">
+        <v>5</v>
+      </c>
+      <c r="E1216">
+        <v>4</v>
+      </c>
+      <c r="F1216">
+        <v>9</v>
+      </c>
+      <c r="G1216">
+        <v>32</v>
+      </c>
+      <c r="H1216">
+        <v>46</v>
+      </c>
+      <c r="I1216">
+        <v>-14</v>
+      </c>
+      <c r="J1216">
+        <v>14</v>
+      </c>
+      <c r="K1216">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>10</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1217">
+        <v>18</v>
+      </c>
+      <c r="D1217">
+        <v>4</v>
+      </c>
+      <c r="E1217">
+        <v>4</v>
+      </c>
+      <c r="F1217">
+        <v>10</v>
+      </c>
+      <c r="G1217">
+        <v>20</v>
+      </c>
+      <c r="H1217">
+        <v>35</v>
+      </c>
+      <c r="I1217">
+        <v>-15</v>
+      </c>
+      <c r="J1217">
+        <v>12</v>
+      </c>
+      <c r="K1217">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>1</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1218">
+        <v>2</v>
+      </c>
+      <c r="D1218">
+        <v>1</v>
+      </c>
+      <c r="E1218">
+        <v>0</v>
+      </c>
+      <c r="F1218">
+        <v>1</v>
+      </c>
+      <c r="G1218">
+        <v>2</v>
+      </c>
+      <c r="H1218">
+        <v>2</v>
+      </c>
+      <c r="I1218">
+        <v>0</v>
+      </c>
+      <c r="J1218">
+        <v>2</v>
+      </c>
+      <c r="K1218">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>2</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1219">
+        <v>2</v>
+      </c>
+      <c r="D1219">
+        <v>1</v>
+      </c>
+      <c r="E1219">
+        <v>0</v>
+      </c>
+      <c r="F1219">
+        <v>1</v>
+      </c>
+      <c r="G1219">
+        <v>2</v>
+      </c>
+      <c r="H1219">
+        <v>2</v>
+      </c>
+      <c r="I1219">
+        <v>0</v>
+      </c>
+      <c r="J1219">
+        <v>2</v>
+      </c>
+      <c r="K1219">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>1</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1220">
+        <v>34</v>
+      </c>
+      <c r="D1220">
+        <v>25</v>
+      </c>
+      <c r="E1220">
+        <v>6</v>
+      </c>
+      <c r="F1220">
+        <v>3</v>
+      </c>
+      <c r="G1220">
+        <v>81</v>
+      </c>
+      <c r="H1220">
+        <v>33</v>
+      </c>
+      <c r="I1220">
+        <v>48</v>
+      </c>
+      <c r="J1220">
+        <v>56</v>
+      </c>
+      <c r="K1220">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>2</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1221">
+        <v>34</v>
+      </c>
+      <c r="D1221">
+        <v>17</v>
+      </c>
+      <c r="E1221">
+        <v>10</v>
+      </c>
+      <c r="F1221">
+        <v>7</v>
+      </c>
+      <c r="G1221">
+        <v>68</v>
+      </c>
+      <c r="H1221">
+        <v>48</v>
+      </c>
+      <c r="I1221">
+        <v>20</v>
+      </c>
+      <c r="J1221">
+        <v>44</v>
+      </c>
+      <c r="K1221">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>3</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1222">
+        <v>34</v>
+      </c>
+      <c r="D1222">
+        <v>16</v>
+      </c>
+      <c r="E1222">
+        <v>9</v>
+      </c>
+      <c r="F1222">
+        <v>9</v>
+      </c>
+      <c r="G1222">
+        <v>74</v>
+      </c>
+      <c r="H1222">
+        <v>51</v>
+      </c>
+      <c r="I1222">
+        <v>23</v>
+      </c>
+      <c r="J1222">
+        <v>41</v>
+      </c>
+      <c r="K1222">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>4</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1223">
+        <v>34</v>
+      </c>
+      <c r="D1223">
+        <v>16</v>
+      </c>
+      <c r="E1223">
+        <v>6</v>
+      </c>
+      <c r="F1223">
+        <v>12</v>
+      </c>
+      <c r="G1223">
+        <v>74</v>
+      </c>
+      <c r="H1223">
+        <v>56</v>
+      </c>
+      <c r="I1223">
+        <v>18</v>
+      </c>
+      <c r="J1223">
+        <v>38</v>
+      </c>
+      <c r="K1223">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>5</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1224">
+        <v>34</v>
+      </c>
+      <c r="D1224">
+        <v>12</v>
+      </c>
+      <c r="E1224">
+        <v>14</v>
+      </c>
+      <c r="F1224">
+        <v>8</v>
+      </c>
+      <c r="G1224">
+        <v>55</v>
+      </c>
+      <c r="H1224">
+        <v>45</v>
+      </c>
+      <c r="I1224">
+        <v>10</v>
+      </c>
+      <c r="J1224">
+        <v>38</v>
+      </c>
+      <c r="K1224">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>6</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1225">
+        <v>34</v>
+      </c>
+      <c r="D1225">
+        <v>11</v>
+      </c>
+      <c r="E1225">
+        <v>13</v>
+      </c>
+      <c r="F1225">
+        <v>10</v>
+      </c>
+      <c r="G1225">
+        <v>56</v>
+      </c>
+      <c r="H1225">
+        <v>50</v>
+      </c>
+      <c r="I1225">
+        <v>6</v>
+      </c>
+      <c r="J1225">
+        <v>35</v>
+      </c>
+      <c r="K1225">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>7</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1226">
+        <v>34</v>
+      </c>
+      <c r="D1226">
+        <v>9</v>
+      </c>
+      <c r="E1226">
+        <v>16</v>
+      </c>
+      <c r="F1226">
+        <v>9</v>
+      </c>
+      <c r="G1226">
+        <v>45</v>
+      </c>
+      <c r="H1226">
+        <v>44</v>
+      </c>
+      <c r="I1226">
+        <v>1</v>
+      </c>
+      <c r="J1226">
+        <v>34</v>
+      </c>
+      <c r="K1226">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>8</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1227">
+        <v>34</v>
+      </c>
+      <c r="D1227">
+        <v>11</v>
+      </c>
+      <c r="E1227">
+        <v>12</v>
+      </c>
+      <c r="F1227">
+        <v>11</v>
+      </c>
+      <c r="G1227">
+        <v>41</v>
+      </c>
+      <c r="H1227">
+        <v>55</v>
+      </c>
+      <c r="I1227">
+        <v>-14</v>
+      </c>
+      <c r="J1227">
+        <v>34</v>
+      </c>
+      <c r="K1227">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>9</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1228">
+        <v>34</v>
+      </c>
+      <c r="D1228">
+        <v>12</v>
+      </c>
+      <c r="E1228">
+        <v>9</v>
+      </c>
+      <c r="F1228">
+        <v>13</v>
+      </c>
+      <c r="G1228">
+        <v>55</v>
+      </c>
+      <c r="H1228">
+        <v>58</v>
+      </c>
+      <c r="I1228">
+        <v>-3</v>
+      </c>
+      <c r="J1228">
+        <v>33</v>
+      </c>
+      <c r="K1228">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>10</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1229">
+        <v>34</v>
+      </c>
+      <c r="D1229">
+        <v>9</v>
+      </c>
+      <c r="E1229">
+        <v>15</v>
+      </c>
+      <c r="F1229">
+        <v>10</v>
+      </c>
+      <c r="G1229">
+        <v>50</v>
+      </c>
+      <c r="H1229">
+        <v>54</v>
+      </c>
+      <c r="I1229">
+        <v>-4</v>
+      </c>
+      <c r="J1229">
+        <v>33</v>
+      </c>
+      <c r="K1229">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>11</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1230">
+        <v>34</v>
+      </c>
+      <c r="D1230">
+        <v>9</v>
+      </c>
+      <c r="E1230">
+        <v>13</v>
+      </c>
+      <c r="F1230">
+        <v>12</v>
+      </c>
+      <c r="G1230">
+        <v>53</v>
+      </c>
+      <c r="H1230">
+        <v>53</v>
+      </c>
+      <c r="I1230">
+        <v>0</v>
+      </c>
+      <c r="J1230">
+        <v>31</v>
+      </c>
+      <c r="K1230">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>12</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1231">
+        <v>34</v>
+      </c>
+      <c r="D1231">
+        <v>8</v>
+      </c>
+      <c r="E1231">
+        <v>13</v>
+      </c>
+      <c r="F1231">
+        <v>13</v>
+      </c>
+      <c r="G1231">
+        <v>47</v>
+      </c>
+      <c r="H1231">
+        <v>49</v>
+      </c>
+      <c r="I1231">
+        <v>-2</v>
+      </c>
+      <c r="J1231">
+        <v>29</v>
+      </c>
+      <c r="K1231">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>13</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1232">
+        <v>34</v>
+      </c>
+      <c r="D1232">
+        <v>7</v>
+      </c>
+      <c r="E1232">
+        <v>15</v>
+      </c>
+      <c r="F1232">
+        <v>12</v>
+      </c>
+      <c r="G1232">
+        <v>37</v>
+      </c>
+      <c r="H1232">
+        <v>45</v>
+      </c>
+      <c r="I1232">
+        <v>-8</v>
+      </c>
+      <c r="J1232">
+        <v>29</v>
+      </c>
+      <c r="K1232">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>14</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1233">
+        <v>34</v>
+      </c>
+      <c r="D1233">
+        <v>8</v>
+      </c>
+      <c r="E1233">
+        <v>13</v>
+      </c>
+      <c r="F1233">
+        <v>13</v>
+      </c>
+      <c r="G1233">
+        <v>47</v>
+      </c>
+      <c r="H1233">
+        <v>63</v>
+      </c>
+      <c r="I1233">
+        <v>-16</v>
+      </c>
+      <c r="J1233">
+        <v>29</v>
+      </c>
+      <c r="K1233">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>15</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1234">
+        <v>34</v>
+      </c>
+      <c r="D1234">
+        <v>10</v>
+      </c>
+      <c r="E1234">
+        <v>8</v>
+      </c>
+      <c r="F1234">
+        <v>16</v>
+      </c>
+      <c r="G1234">
+        <v>47</v>
+      </c>
+      <c r="H1234">
+        <v>63</v>
+      </c>
+      <c r="I1234">
+        <v>-16</v>
+      </c>
+      <c r="J1234">
+        <v>28</v>
+      </c>
+      <c r="K1234">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>16</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1235">
+        <v>34</v>
+      </c>
+      <c r="D1235">
+        <v>7</v>
+      </c>
+      <c r="E1235">
+        <v>13</v>
+      </c>
+      <c r="F1235">
+        <v>14</v>
+      </c>
+      <c r="G1235">
+        <v>40</v>
+      </c>
+      <c r="H1235">
+        <v>54</v>
+      </c>
+      <c r="I1235">
+        <v>-14</v>
+      </c>
+      <c r="J1235">
+        <v>27</v>
+      </c>
+      <c r="K1235">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>17</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1236">
+        <v>34</v>
+      </c>
+      <c r="D1236">
+        <v>9</v>
+      </c>
+      <c r="E1236">
+        <v>9</v>
+      </c>
+      <c r="F1236">
+        <v>16</v>
+      </c>
+      <c r="G1236">
+        <v>44</v>
+      </c>
+      <c r="H1236">
+        <v>72</v>
+      </c>
+      <c r="I1236">
+        <v>-28</v>
+      </c>
+      <c r="J1236">
+        <v>27</v>
+      </c>
+      <c r="K1236">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>18</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1237">
+        <v>34</v>
+      </c>
+      <c r="D1237">
+        <v>7</v>
+      </c>
+      <c r="E1237">
+        <v>12</v>
+      </c>
+      <c r="F1237">
+        <v>15</v>
+      </c>
+      <c r="G1237">
+        <v>29</v>
+      </c>
+      <c r="H1237">
+        <v>50</v>
+      </c>
+      <c r="I1237">
+        <v>-21</v>
+      </c>
+      <c r="J1237">
+        <v>26</v>
+      </c>
+      <c r="K1237">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>1</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1238">
+        <v>34</v>
+      </c>
+      <c r="D1238">
+        <v>20</v>
+      </c>
+      <c r="E1238">
+        <v>8</v>
+      </c>
+      <c r="F1238">
+        <v>6</v>
+      </c>
+      <c r="G1238">
+        <v>70</v>
+      </c>
+      <c r="H1238">
+        <v>34</v>
+      </c>
+      <c r="I1238">
+        <v>36</v>
+      </c>
+      <c r="J1238">
+        <v>48</v>
+      </c>
+      <c r="K1238">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>2</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1239">
+        <v>34</v>
+      </c>
+      <c r="D1239">
+        <v>17</v>
+      </c>
+      <c r="E1239">
+        <v>10</v>
+      </c>
+      <c r="F1239">
+        <v>7</v>
+      </c>
+      <c r="G1239">
+        <v>63</v>
+      </c>
+      <c r="H1239">
+        <v>42</v>
+      </c>
+      <c r="I1239">
+        <v>21</v>
+      </c>
+      <c r="J1239">
+        <v>44</v>
+      </c>
+      <c r="K1239">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>3</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1240">
+        <v>34</v>
+      </c>
+      <c r="D1240">
+        <v>16</v>
+      </c>
+      <c r="E1240">
+        <v>11</v>
+      </c>
+      <c r="F1240">
+        <v>7</v>
+      </c>
+      <c r="G1240">
+        <v>46</v>
+      </c>
+      <c r="H1240">
+        <v>33</v>
+      </c>
+      <c r="I1240">
+        <v>13</v>
+      </c>
+      <c r="J1240">
+        <v>43</v>
+      </c>
+      <c r="K1240">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>4</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1241">
+        <v>34</v>
+      </c>
+      <c r="D1241">
+        <v>18</v>
+      </c>
+      <c r="E1241">
+        <v>6</v>
+      </c>
+      <c r="F1241">
+        <v>10</v>
+      </c>
+      <c r="G1241">
+        <v>79</v>
+      </c>
+      <c r="H1241">
+        <v>49</v>
+      </c>
+      <c r="I1241">
+        <v>30</v>
+      </c>
+      <c r="J1241">
+        <v>42</v>
+      </c>
+      <c r="K1241">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>5</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1242">
+        <v>34</v>
+      </c>
+      <c r="D1242">
+        <v>14</v>
+      </c>
+      <c r="E1242">
+        <v>10</v>
+      </c>
+      <c r="F1242">
+        <v>10</v>
+      </c>
+      <c r="G1242">
+        <v>52</v>
+      </c>
+      <c r="H1242">
+        <v>40</v>
+      </c>
+      <c r="I1242">
+        <v>12</v>
+      </c>
+      <c r="J1242">
+        <v>38</v>
+      </c>
+      <c r="K1242">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>6</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1243">
+        <v>34</v>
+      </c>
+      <c r="D1243">
+        <v>14</v>
+      </c>
+      <c r="E1243">
+        <v>10</v>
+      </c>
+      <c r="F1243">
+        <v>10</v>
+      </c>
+      <c r="G1243">
+        <v>46</v>
+      </c>
+      <c r="H1243">
+        <v>48</v>
+      </c>
+      <c r="I1243">
+        <v>-2</v>
+      </c>
+      <c r="J1243">
+        <v>38</v>
+      </c>
+      <c r="K1243">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>7</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1244">
+        <v>34</v>
+      </c>
+      <c r="D1244">
+        <v>12</v>
+      </c>
+      <c r="E1244">
+        <v>12</v>
+      </c>
+      <c r="F1244">
+        <v>10</v>
+      </c>
+      <c r="G1244">
+        <v>46</v>
+      </c>
+      <c r="H1244">
+        <v>42</v>
+      </c>
+      <c r="I1244">
+        <v>4</v>
+      </c>
+      <c r="J1244">
+        <v>36</v>
+      </c>
+      <c r="K1244">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>8</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1245">
+        <v>34</v>
+      </c>
+      <c r="D1245">
+        <v>12</v>
+      </c>
+      <c r="E1245">
+        <v>11</v>
+      </c>
+      <c r="F1245">
+        <v>11</v>
+      </c>
+      <c r="G1245">
+        <v>64</v>
+      </c>
+      <c r="H1245">
+        <v>52</v>
+      </c>
+      <c r="I1245">
+        <v>12</v>
+      </c>
+      <c r="J1245">
+        <v>35</v>
+      </c>
+      <c r="K1245">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>9</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1246">
+        <v>34</v>
+      </c>
+      <c r="D1246">
+        <v>12</v>
+      </c>
+      <c r="E1246">
+        <v>11</v>
+      </c>
+      <c r="F1246">
+        <v>11</v>
+      </c>
+      <c r="G1246">
+        <v>43</v>
+      </c>
+      <c r="H1246">
+        <v>48</v>
+      </c>
+      <c r="I1246">
+        <v>-5</v>
+      </c>
+      <c r="J1246">
+        <v>35</v>
+      </c>
+      <c r="K1246">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>10</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1247">
+        <v>34</v>
+      </c>
+      <c r="D1247">
+        <v>12</v>
+      </c>
+      <c r="E1247">
+        <v>7</v>
+      </c>
+      <c r="F1247">
+        <v>15</v>
+      </c>
+      <c r="G1247">
+        <v>45</v>
+      </c>
+      <c r="H1247">
+        <v>60</v>
+      </c>
+      <c r="I1247">
+        <v>-15</v>
+      </c>
+      <c r="J1247">
+        <v>31</v>
+      </c>
+      <c r="K1247">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>11</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1248">
+        <v>34</v>
+      </c>
+      <c r="D1248">
+        <v>10</v>
+      </c>
+      <c r="E1248">
+        <v>10</v>
+      </c>
+      <c r="F1248">
+        <v>14</v>
+      </c>
+      <c r="G1248">
+        <v>65</v>
+      </c>
+      <c r="H1248">
+        <v>65</v>
+      </c>
+      <c r="I1248">
+        <v>0</v>
+      </c>
+      <c r="J1248">
+        <v>30</v>
+      </c>
+      <c r="K1248">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>12</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1249">
+        <v>34</v>
+      </c>
+      <c r="D1249">
+        <v>9</v>
+      </c>
+      <c r="E1249">
+        <v>12</v>
+      </c>
+      <c r="F1249">
+        <v>13</v>
+      </c>
+      <c r="G1249">
+        <v>52</v>
+      </c>
+      <c r="H1249">
+        <v>56</v>
+      </c>
+      <c r="I1249">
+        <v>-4</v>
+      </c>
+      <c r="J1249">
+        <v>30</v>
+      </c>
+      <c r="K1249">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>13</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1250">
+        <v>34</v>
+      </c>
+      <c r="D1250">
+        <v>12</v>
+      </c>
+      <c r="E1250">
+        <v>6</v>
+      </c>
+      <c r="F1250">
+        <v>16</v>
+      </c>
+      <c r="G1250">
+        <v>47</v>
+      </c>
+      <c r="H1250">
+        <v>57</v>
+      </c>
+      <c r="I1250">
+        <v>-10</v>
+      </c>
+      <c r="J1250">
+        <v>30</v>
+      </c>
+      <c r="K1250">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>14</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1251">
+        <v>34</v>
+      </c>
+      <c r="D1251">
+        <v>11</v>
+      </c>
+      <c r="E1251">
+        <v>7</v>
+      </c>
+      <c r="F1251">
+        <v>16</v>
+      </c>
+      <c r="G1251">
+        <v>57</v>
+      </c>
+      <c r="H1251">
+        <v>65</v>
+      </c>
+      <c r="I1251">
+        <v>-8</v>
+      </c>
+      <c r="J1251">
+        <v>29</v>
+      </c>
+      <c r="K1251">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>15</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1252">
+        <v>34</v>
+      </c>
+      <c r="D1252">
+        <v>9</v>
+      </c>
+      <c r="E1252">
+        <v>10</v>
+      </c>
+      <c r="F1252">
+        <v>15</v>
+      </c>
+      <c r="G1252">
+        <v>37</v>
+      </c>
+      <c r="H1252">
+        <v>46</v>
+      </c>
+      <c r="I1252">
+        <v>-9</v>
+      </c>
+      <c r="J1252">
+        <v>28</v>
+      </c>
+      <c r="K1252">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>16</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1253">
+        <v>34</v>
+      </c>
+      <c r="D1253">
+        <v>8</v>
+      </c>
+      <c r="E1253">
+        <v>12</v>
+      </c>
+      <c r="F1253">
+        <v>14</v>
+      </c>
+      <c r="G1253">
+        <v>35</v>
+      </c>
+      <c r="H1253">
+        <v>49</v>
+      </c>
+      <c r="I1253">
+        <v>-14</v>
+      </c>
+      <c r="J1253">
+        <v>28</v>
+      </c>
+      <c r="K1253">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>17</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1254">
+        <v>34</v>
+      </c>
+      <c r="D1254">
+        <v>8</v>
+      </c>
+      <c r="E1254">
+        <v>8</v>
+      </c>
+      <c r="F1254">
+        <v>18</v>
+      </c>
+      <c r="G1254">
+        <v>41</v>
+      </c>
+      <c r="H1254">
+        <v>69</v>
+      </c>
+      <c r="I1254">
+        <v>-28</v>
+      </c>
+      <c r="J1254">
+        <v>24</v>
+      </c>
+      <c r="K1254">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>18</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1255">
+        <v>34</v>
+      </c>
+      <c r="D1255">
+        <v>8</v>
+      </c>
+      <c r="E1255">
+        <v>7</v>
+      </c>
+      <c r="F1255">
+        <v>19</v>
+      </c>
+      <c r="G1255">
+        <v>45</v>
+      </c>
+      <c r="H1255">
+        <v>78</v>
+      </c>
+      <c r="I1255">
+        <v>-33</v>
+      </c>
+      <c r="J1255">
+        <v>23</v>
+      </c>
+      <c r="K1255">
+        <v>1966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/base_torneos.xlsx
+++ b/base_torneos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\GitHub\shiny_futbol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aajai\Desktop\Trabajo\2020\shiny_futbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6757BE-00BF-4645-A72D-004DF5182C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="58">
   <si>
     <t>Pos</t>
   </si>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
-      <selection activeCell="B1246" sqref="B1246"/>
+    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
+      <selection activeCell="B1359" sqref="B1359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44454,8 +44455,3648 @@
         <v>1966</v>
       </c>
     </row>
+    <row r="1256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>1</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1256">
+        <v>34</v>
+      </c>
+      <c r="D1256">
+        <v>25</v>
+      </c>
+      <c r="E1256">
+        <v>7</v>
+      </c>
+      <c r="F1256">
+        <v>2</v>
+      </c>
+      <c r="G1256">
+        <v>86</v>
+      </c>
+      <c r="H1256">
+        <v>36</v>
+      </c>
+      <c r="I1256">
+        <v>50</v>
+      </c>
+      <c r="J1256">
+        <v>57</v>
+      </c>
+      <c r="K1256">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>2</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1257">
+        <v>34</v>
+      </c>
+      <c r="D1257">
+        <v>21</v>
+      </c>
+      <c r="E1257">
+        <v>9</v>
+      </c>
+      <c r="F1257">
+        <v>4</v>
+      </c>
+      <c r="G1257">
+        <v>71</v>
+      </c>
+      <c r="H1257">
+        <v>39</v>
+      </c>
+      <c r="I1257">
+        <v>32</v>
+      </c>
+      <c r="J1257">
+        <v>51</v>
+      </c>
+      <c r="K1257">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>3</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1258">
+        <v>34</v>
+      </c>
+      <c r="D1258">
+        <v>18</v>
+      </c>
+      <c r="E1258">
+        <v>8</v>
+      </c>
+      <c r="F1258">
+        <v>8</v>
+      </c>
+      <c r="G1258">
+        <v>76</v>
+      </c>
+      <c r="H1258">
+        <v>63</v>
+      </c>
+      <c r="I1258">
+        <v>13</v>
+      </c>
+      <c r="J1258">
+        <v>44</v>
+      </c>
+      <c r="K1258">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>4</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1259">
+        <v>34</v>
+      </c>
+      <c r="D1259">
+        <v>16</v>
+      </c>
+      <c r="E1259">
+        <v>11</v>
+      </c>
+      <c r="F1259">
+        <v>7</v>
+      </c>
+      <c r="G1259">
+        <v>70</v>
+      </c>
+      <c r="H1259">
+        <v>42</v>
+      </c>
+      <c r="I1259">
+        <v>28</v>
+      </c>
+      <c r="J1259">
+        <v>43</v>
+      </c>
+      <c r="K1259">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>5</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1260">
+        <v>34</v>
+      </c>
+      <c r="D1260">
+        <v>17</v>
+      </c>
+      <c r="E1260">
+        <v>7</v>
+      </c>
+      <c r="F1260">
+        <v>10</v>
+      </c>
+      <c r="G1260">
+        <v>76</v>
+      </c>
+      <c r="H1260">
+        <v>52</v>
+      </c>
+      <c r="I1260">
+        <v>24</v>
+      </c>
+      <c r="J1260">
+        <v>41</v>
+      </c>
+      <c r="K1260">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>6</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1261">
+        <v>34</v>
+      </c>
+      <c r="D1261">
+        <v>14</v>
+      </c>
+      <c r="E1261">
+        <v>7</v>
+      </c>
+      <c r="F1261">
+        <v>13</v>
+      </c>
+      <c r="G1261">
+        <v>51</v>
+      </c>
+      <c r="H1261">
+        <v>46</v>
+      </c>
+      <c r="I1261">
+        <v>5</v>
+      </c>
+      <c r="J1261">
+        <v>35</v>
+      </c>
+      <c r="K1261">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>7</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1262">
+        <v>34</v>
+      </c>
+      <c r="D1262">
+        <v>11</v>
+      </c>
+      <c r="E1262">
+        <v>12</v>
+      </c>
+      <c r="F1262">
+        <v>11</v>
+      </c>
+      <c r="G1262">
+        <v>65</v>
+      </c>
+      <c r="H1262">
+        <v>55</v>
+      </c>
+      <c r="I1262">
+        <v>10</v>
+      </c>
+      <c r="J1262">
+        <v>34</v>
+      </c>
+      <c r="K1262">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>8</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1263">
+        <v>34</v>
+      </c>
+      <c r="D1263">
+        <v>12</v>
+      </c>
+      <c r="E1263">
+        <v>10</v>
+      </c>
+      <c r="F1263">
+        <v>12</v>
+      </c>
+      <c r="G1263">
+        <v>43</v>
+      </c>
+      <c r="H1263">
+        <v>39</v>
+      </c>
+      <c r="I1263">
+        <v>4</v>
+      </c>
+      <c r="J1263">
+        <v>34</v>
+      </c>
+      <c r="K1263">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>9</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1264">
+        <v>34</v>
+      </c>
+      <c r="D1264">
+        <v>12</v>
+      </c>
+      <c r="E1264">
+        <v>10</v>
+      </c>
+      <c r="F1264">
+        <v>12</v>
+      </c>
+      <c r="G1264">
+        <v>57</v>
+      </c>
+      <c r="H1264">
+        <v>59</v>
+      </c>
+      <c r="I1264">
+        <v>-2</v>
+      </c>
+      <c r="J1264">
+        <v>34</v>
+      </c>
+      <c r="K1264">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>10</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1265">
+        <v>34</v>
+      </c>
+      <c r="D1265">
+        <v>13</v>
+      </c>
+      <c r="E1265">
+        <v>7</v>
+      </c>
+      <c r="F1265">
+        <v>14</v>
+      </c>
+      <c r="G1265">
+        <v>55</v>
+      </c>
+      <c r="H1265">
+        <v>54</v>
+      </c>
+      <c r="I1265">
+        <v>1</v>
+      </c>
+      <c r="J1265">
+        <v>33</v>
+      </c>
+      <c r="K1265">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>11</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1266">
+        <v>34</v>
+      </c>
+      <c r="D1266">
+        <v>11</v>
+      </c>
+      <c r="E1266">
+        <v>11</v>
+      </c>
+      <c r="F1266">
+        <v>12</v>
+      </c>
+      <c r="G1266">
+        <v>49</v>
+      </c>
+      <c r="H1266">
+        <v>53</v>
+      </c>
+      <c r="I1266">
+        <v>-4</v>
+      </c>
+      <c r="J1266">
+        <v>33</v>
+      </c>
+      <c r="K1266">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>12</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1267">
+        <v>34</v>
+      </c>
+      <c r="D1267">
+        <v>12</v>
+      </c>
+      <c r="E1267">
+        <v>7</v>
+      </c>
+      <c r="F1267">
+        <v>15</v>
+      </c>
+      <c r="G1267">
+        <v>74</v>
+      </c>
+      <c r="H1267">
+        <v>66</v>
+      </c>
+      <c r="I1267">
+        <v>8</v>
+      </c>
+      <c r="J1267">
+        <v>31</v>
+      </c>
+      <c r="K1267">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>13</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1268">
+        <v>34</v>
+      </c>
+      <c r="D1268">
+        <v>11</v>
+      </c>
+      <c r="E1268">
+        <v>9</v>
+      </c>
+      <c r="F1268">
+        <v>14</v>
+      </c>
+      <c r="G1268">
+        <v>41</v>
+      </c>
+      <c r="H1268">
+        <v>57</v>
+      </c>
+      <c r="I1268">
+        <v>-16</v>
+      </c>
+      <c r="J1268">
+        <v>31</v>
+      </c>
+      <c r="K1268">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>14</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1269">
+        <v>34</v>
+      </c>
+      <c r="D1269">
+        <v>13</v>
+      </c>
+      <c r="E1269">
+        <v>3</v>
+      </c>
+      <c r="F1269">
+        <v>18</v>
+      </c>
+      <c r="G1269">
+        <v>59</v>
+      </c>
+      <c r="H1269">
+        <v>86</v>
+      </c>
+      <c r="I1269">
+        <v>-27</v>
+      </c>
+      <c r="J1269">
+        <v>29</v>
+      </c>
+      <c r="K1269">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>15</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1270">
+        <v>34</v>
+      </c>
+      <c r="D1270">
+        <v>4</v>
+      </c>
+      <c r="E1270">
+        <v>18</v>
+      </c>
+      <c r="F1270">
+        <v>12</v>
+      </c>
+      <c r="G1270">
+        <v>43</v>
+      </c>
+      <c r="H1270">
+        <v>59</v>
+      </c>
+      <c r="I1270">
+        <v>-16</v>
+      </c>
+      <c r="J1270">
+        <v>26</v>
+      </c>
+      <c r="K1270">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>16</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1271">
+        <v>34</v>
+      </c>
+      <c r="D1271">
+        <v>5</v>
+      </c>
+      <c r="E1271">
+        <v>13</v>
+      </c>
+      <c r="F1271">
+        <v>16</v>
+      </c>
+      <c r="G1271">
+        <v>46</v>
+      </c>
+      <c r="H1271">
+        <v>67</v>
+      </c>
+      <c r="I1271">
+        <v>-21</v>
+      </c>
+      <c r="J1271">
+        <v>23</v>
+      </c>
+      <c r="K1271">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>17</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1272">
+        <v>34</v>
+      </c>
+      <c r="D1272">
+        <v>8</v>
+      </c>
+      <c r="E1272">
+        <v>7</v>
+      </c>
+      <c r="F1272">
+        <v>19</v>
+      </c>
+      <c r="G1272">
+        <v>41</v>
+      </c>
+      <c r="H1272">
+        <v>73</v>
+      </c>
+      <c r="I1272">
+        <v>-32</v>
+      </c>
+      <c r="J1272">
+        <v>23</v>
+      </c>
+      <c r="K1272">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>18</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1273">
+        <v>34</v>
+      </c>
+      <c r="D1273">
+        <v>1</v>
+      </c>
+      <c r="E1273">
+        <v>8</v>
+      </c>
+      <c r="F1273">
+        <v>25</v>
+      </c>
+      <c r="G1273">
+        <v>24</v>
+      </c>
+      <c r="H1273">
+        <v>81</v>
+      </c>
+      <c r="I1273">
+        <v>-57</v>
+      </c>
+      <c r="J1273">
+        <v>10</v>
+      </c>
+      <c r="K1273">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>1</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1274">
+        <v>34</v>
+      </c>
+      <c r="D1274">
+        <v>21</v>
+      </c>
+      <c r="E1274">
+        <v>10</v>
+      </c>
+      <c r="F1274">
+        <v>3</v>
+      </c>
+      <c r="G1274">
+        <v>72</v>
+      </c>
+      <c r="H1274">
+        <v>28</v>
+      </c>
+      <c r="I1274">
+        <v>44</v>
+      </c>
+      <c r="J1274">
+        <v>52</v>
+      </c>
+      <c r="K1274">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>2</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1275">
+        <v>34</v>
+      </c>
+      <c r="D1275">
+        <v>18</v>
+      </c>
+      <c r="E1275">
+        <v>7</v>
+      </c>
+      <c r="F1275">
+        <v>9</v>
+      </c>
+      <c r="G1275">
+        <v>78</v>
+      </c>
+      <c r="H1275">
+        <v>50</v>
+      </c>
+      <c r="I1275">
+        <v>28</v>
+      </c>
+      <c r="J1275">
+        <v>43</v>
+      </c>
+      <c r="K1275">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>3</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1276">
+        <v>34</v>
+      </c>
+      <c r="D1276">
+        <v>17</v>
+      </c>
+      <c r="E1276">
+        <v>9</v>
+      </c>
+      <c r="F1276">
+        <v>8</v>
+      </c>
+      <c r="G1276">
+        <v>55</v>
+      </c>
+      <c r="H1276">
+        <v>37</v>
+      </c>
+      <c r="I1276">
+        <v>18</v>
+      </c>
+      <c r="J1276">
+        <v>43</v>
+      </c>
+      <c r="K1276">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>4</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1277">
+        <v>34</v>
+      </c>
+      <c r="D1277">
+        <v>18</v>
+      </c>
+      <c r="E1277">
+        <v>4</v>
+      </c>
+      <c r="F1277">
+        <v>12</v>
+      </c>
+      <c r="G1277">
+        <v>75</v>
+      </c>
+      <c r="H1277">
+        <v>52</v>
+      </c>
+      <c r="I1277">
+        <v>23</v>
+      </c>
+      <c r="J1277">
+        <v>40</v>
+      </c>
+      <c r="K1277">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>5</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1278">
+        <v>34</v>
+      </c>
+      <c r="D1278">
+        <v>15</v>
+      </c>
+      <c r="E1278">
+        <v>10</v>
+      </c>
+      <c r="F1278">
+        <v>9</v>
+      </c>
+      <c r="G1278">
+        <v>59</v>
+      </c>
+      <c r="H1278">
+        <v>58</v>
+      </c>
+      <c r="I1278">
+        <v>1</v>
+      </c>
+      <c r="J1278">
+        <v>40</v>
+      </c>
+      <c r="K1278">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>6</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1279">
+        <v>34</v>
+      </c>
+      <c r="D1279">
+        <v>14</v>
+      </c>
+      <c r="E1279">
+        <v>11</v>
+      </c>
+      <c r="F1279">
+        <v>9</v>
+      </c>
+      <c r="G1279">
+        <v>65</v>
+      </c>
+      <c r="H1279">
+        <v>61</v>
+      </c>
+      <c r="I1279">
+        <v>4</v>
+      </c>
+      <c r="J1279">
+        <v>39</v>
+      </c>
+      <c r="K1279">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>7</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1280">
+        <v>34</v>
+      </c>
+      <c r="D1280">
+        <v>14</v>
+      </c>
+      <c r="E1280">
+        <v>9</v>
+      </c>
+      <c r="F1280">
+        <v>11</v>
+      </c>
+      <c r="G1280">
+        <v>56</v>
+      </c>
+      <c r="H1280">
+        <v>55</v>
+      </c>
+      <c r="I1280">
+        <v>1</v>
+      </c>
+      <c r="J1280">
+        <v>37</v>
+      </c>
+      <c r="K1280">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>8</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1281">
+        <v>34</v>
+      </c>
+      <c r="D1281">
+        <v>14</v>
+      </c>
+      <c r="E1281">
+        <v>7</v>
+      </c>
+      <c r="F1281">
+        <v>13</v>
+      </c>
+      <c r="G1281">
+        <v>67</v>
+      </c>
+      <c r="H1281">
+        <v>56</v>
+      </c>
+      <c r="I1281">
+        <v>11</v>
+      </c>
+      <c r="J1281">
+        <v>35</v>
+      </c>
+      <c r="K1281">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>9</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1282">
+        <v>34</v>
+      </c>
+      <c r="D1282">
+        <v>13</v>
+      </c>
+      <c r="E1282">
+        <v>9</v>
+      </c>
+      <c r="F1282">
+        <v>12</v>
+      </c>
+      <c r="G1282">
+        <v>49</v>
+      </c>
+      <c r="H1282">
+        <v>52</v>
+      </c>
+      <c r="I1282">
+        <v>-3</v>
+      </c>
+      <c r="J1282">
+        <v>35</v>
+      </c>
+      <c r="K1282">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>10</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1283">
+        <v>34</v>
+      </c>
+      <c r="D1283">
+        <v>12</v>
+      </c>
+      <c r="E1283">
+        <v>10</v>
+      </c>
+      <c r="F1283">
+        <v>12</v>
+      </c>
+      <c r="G1283">
+        <v>55</v>
+      </c>
+      <c r="H1283">
+        <v>51</v>
+      </c>
+      <c r="I1283">
+        <v>4</v>
+      </c>
+      <c r="J1283">
+        <v>34</v>
+      </c>
+      <c r="K1283">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>11</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1284">
+        <v>34</v>
+      </c>
+      <c r="D1284">
+        <v>10</v>
+      </c>
+      <c r="E1284">
+        <v>12</v>
+      </c>
+      <c r="F1284">
+        <v>12</v>
+      </c>
+      <c r="G1284">
+        <v>50</v>
+      </c>
+      <c r="H1284">
+        <v>51</v>
+      </c>
+      <c r="I1284">
+        <v>-1</v>
+      </c>
+      <c r="J1284">
+        <v>32</v>
+      </c>
+      <c r="K1284">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>12</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1285">
+        <v>34</v>
+      </c>
+      <c r="D1285">
+        <v>11</v>
+      </c>
+      <c r="E1285">
+        <v>7</v>
+      </c>
+      <c r="F1285">
+        <v>16</v>
+      </c>
+      <c r="G1285">
+        <v>53</v>
+      </c>
+      <c r="H1285">
+        <v>64</v>
+      </c>
+      <c r="I1285">
+        <v>-11</v>
+      </c>
+      <c r="J1285">
+        <v>29</v>
+      </c>
+      <c r="K1285">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>13</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1286">
+        <v>34</v>
+      </c>
+      <c r="D1286">
+        <v>11</v>
+      </c>
+      <c r="E1286">
+        <v>6</v>
+      </c>
+      <c r="F1286">
+        <v>17</v>
+      </c>
+      <c r="G1286">
+        <v>36</v>
+      </c>
+      <c r="H1286">
+        <v>52</v>
+      </c>
+      <c r="I1286">
+        <v>-16</v>
+      </c>
+      <c r="J1286">
+        <v>28</v>
+      </c>
+      <c r="K1286">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>14</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1287">
+        <v>34</v>
+      </c>
+      <c r="D1287">
+        <v>7</v>
+      </c>
+      <c r="E1287">
+        <v>12</v>
+      </c>
+      <c r="F1287">
+        <v>15</v>
+      </c>
+      <c r="G1287">
+        <v>36</v>
+      </c>
+      <c r="H1287">
+        <v>50</v>
+      </c>
+      <c r="I1287">
+        <v>-14</v>
+      </c>
+      <c r="J1287">
+        <v>26</v>
+      </c>
+      <c r="K1287">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>15</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1288">
+        <v>34</v>
+      </c>
+      <c r="D1288">
+        <v>8</v>
+      </c>
+      <c r="E1288">
+        <v>10</v>
+      </c>
+      <c r="F1288">
+        <v>16</v>
+      </c>
+      <c r="G1288">
+        <v>51</v>
+      </c>
+      <c r="H1288">
+        <v>70</v>
+      </c>
+      <c r="I1288">
+        <v>-19</v>
+      </c>
+      <c r="J1288">
+        <v>26</v>
+      </c>
+      <c r="K1288">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>16</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1289">
+        <v>34</v>
+      </c>
+      <c r="D1289">
+        <v>10</v>
+      </c>
+      <c r="E1289">
+        <v>5</v>
+      </c>
+      <c r="F1289">
+        <v>19</v>
+      </c>
+      <c r="G1289">
+        <v>44</v>
+      </c>
+      <c r="H1289">
+        <v>68</v>
+      </c>
+      <c r="I1289">
+        <v>-24</v>
+      </c>
+      <c r="J1289">
+        <v>25</v>
+      </c>
+      <c r="K1289">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>17</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1290">
+        <v>34</v>
+      </c>
+      <c r="D1290">
+        <v>7</v>
+      </c>
+      <c r="E1290">
+        <v>11</v>
+      </c>
+      <c r="F1290">
+        <v>16</v>
+      </c>
+      <c r="G1290">
+        <v>22</v>
+      </c>
+      <c r="H1290">
+        <v>43</v>
+      </c>
+      <c r="I1290">
+        <v>-21</v>
+      </c>
+      <c r="J1290">
+        <v>25</v>
+      </c>
+      <c r="K1290">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>18</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1291">
+        <v>34</v>
+      </c>
+      <c r="D1291">
+        <v>9</v>
+      </c>
+      <c r="E1291">
+        <v>5</v>
+      </c>
+      <c r="F1291">
+        <v>20</v>
+      </c>
+      <c r="G1291">
+        <v>44</v>
+      </c>
+      <c r="H1291">
+        <v>69</v>
+      </c>
+      <c r="I1291">
+        <v>-25</v>
+      </c>
+      <c r="J1291">
+        <v>23</v>
+      </c>
+      <c r="K1291">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>1</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1292">
+        <v>34</v>
+      </c>
+      <c r="D1292">
+        <v>24</v>
+      </c>
+      <c r="E1292">
+        <v>5</v>
+      </c>
+      <c r="F1292">
+        <v>5</v>
+      </c>
+      <c r="G1292">
+        <v>103</v>
+      </c>
+      <c r="H1292">
+        <v>46</v>
+      </c>
+      <c r="I1292">
+        <v>57</v>
+      </c>
+      <c r="J1292">
+        <v>53</v>
+      </c>
+      <c r="K1292">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>2</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1293">
+        <v>34</v>
+      </c>
+      <c r="D1293">
+        <v>23</v>
+      </c>
+      <c r="E1293">
+        <v>6</v>
+      </c>
+      <c r="F1293">
+        <v>5</v>
+      </c>
+      <c r="G1293">
+        <v>78</v>
+      </c>
+      <c r="H1293">
+        <v>42</v>
+      </c>
+      <c r="I1293">
+        <v>36</v>
+      </c>
+      <c r="J1293">
+        <v>52</v>
+      </c>
+      <c r="K1293">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>3</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1294">
+        <v>34</v>
+      </c>
+      <c r="D1294">
+        <v>18</v>
+      </c>
+      <c r="E1294">
+        <v>7</v>
+      </c>
+      <c r="F1294">
+        <v>9</v>
+      </c>
+      <c r="G1294">
+        <v>64</v>
+      </c>
+      <c r="H1294">
+        <v>54</v>
+      </c>
+      <c r="I1294">
+        <v>10</v>
+      </c>
+      <c r="J1294">
+        <v>43</v>
+      </c>
+      <c r="K1294">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>4</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1295">
+        <v>34</v>
+      </c>
+      <c r="D1295">
+        <v>16</v>
+      </c>
+      <c r="E1295">
+        <v>9</v>
+      </c>
+      <c r="F1295">
+        <v>9</v>
+      </c>
+      <c r="G1295">
+        <v>69</v>
+      </c>
+      <c r="H1295">
+        <v>39</v>
+      </c>
+      <c r="I1295">
+        <v>30</v>
+      </c>
+      <c r="J1295">
+        <v>41</v>
+      </c>
+      <c r="K1295">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>5</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1296">
+        <v>34</v>
+      </c>
+      <c r="D1296">
+        <v>15</v>
+      </c>
+      <c r="E1296">
+        <v>11</v>
+      </c>
+      <c r="F1296">
+        <v>8</v>
+      </c>
+      <c r="G1296">
+        <v>66</v>
+      </c>
+      <c r="H1296">
+        <v>52</v>
+      </c>
+      <c r="I1296">
+        <v>14</v>
+      </c>
+      <c r="J1296">
+        <v>41</v>
+      </c>
+      <c r="K1296">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>6</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1297">
+        <v>34</v>
+      </c>
+      <c r="D1297">
+        <v>17</v>
+      </c>
+      <c r="E1297">
+        <v>4</v>
+      </c>
+      <c r="F1297">
+        <v>13</v>
+      </c>
+      <c r="G1297">
+        <v>57</v>
+      </c>
+      <c r="H1297">
+        <v>59</v>
+      </c>
+      <c r="I1297">
+        <v>-2</v>
+      </c>
+      <c r="J1297">
+        <v>38</v>
+      </c>
+      <c r="K1297">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>7</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1298">
+        <v>34</v>
+      </c>
+      <c r="D1298">
+        <v>11</v>
+      </c>
+      <c r="E1298">
+        <v>12</v>
+      </c>
+      <c r="F1298">
+        <v>11</v>
+      </c>
+      <c r="G1298">
+        <v>54</v>
+      </c>
+      <c r="H1298">
+        <v>46</v>
+      </c>
+      <c r="I1298">
+        <v>8</v>
+      </c>
+      <c r="J1298">
+        <v>34</v>
+      </c>
+      <c r="K1298">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>8</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1299">
+        <v>34</v>
+      </c>
+      <c r="D1299">
+        <v>11</v>
+      </c>
+      <c r="E1299">
+        <v>12</v>
+      </c>
+      <c r="F1299">
+        <v>11</v>
+      </c>
+      <c r="G1299">
+        <v>68</v>
+      </c>
+      <c r="H1299">
+        <v>72</v>
+      </c>
+      <c r="I1299">
+        <v>-4</v>
+      </c>
+      <c r="J1299">
+        <v>34</v>
+      </c>
+      <c r="K1299">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>9</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1300">
+        <v>34</v>
+      </c>
+      <c r="D1300">
+        <v>12</v>
+      </c>
+      <c r="E1300">
+        <v>8</v>
+      </c>
+      <c r="F1300">
+        <v>14</v>
+      </c>
+      <c r="G1300">
+        <v>53</v>
+      </c>
+      <c r="H1300">
+        <v>58</v>
+      </c>
+      <c r="I1300">
+        <v>-5</v>
+      </c>
+      <c r="J1300">
+        <v>32</v>
+      </c>
+      <c r="K1300">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>10</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1301">
+        <v>34</v>
+      </c>
+      <c r="D1301">
+        <v>11</v>
+      </c>
+      <c r="E1301">
+        <v>9</v>
+      </c>
+      <c r="F1301">
+        <v>14</v>
+      </c>
+      <c r="G1301">
+        <v>45</v>
+      </c>
+      <c r="H1301">
+        <v>53</v>
+      </c>
+      <c r="I1301">
+        <v>-8</v>
+      </c>
+      <c r="J1301">
+        <v>31</v>
+      </c>
+      <c r="K1301">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>11</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1302">
+        <v>34</v>
+      </c>
+      <c r="D1302">
+        <v>12</v>
+      </c>
+      <c r="E1302">
+        <v>5</v>
+      </c>
+      <c r="F1302">
+        <v>17</v>
+      </c>
+      <c r="G1302">
+        <v>68</v>
+      </c>
+      <c r="H1302">
+        <v>68</v>
+      </c>
+      <c r="I1302">
+        <v>0</v>
+      </c>
+      <c r="J1302">
+        <v>29</v>
+      </c>
+      <c r="K1302">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>12</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1303">
+        <v>34</v>
+      </c>
+      <c r="D1303">
+        <v>11</v>
+      </c>
+      <c r="E1303">
+        <v>7</v>
+      </c>
+      <c r="F1303">
+        <v>16</v>
+      </c>
+      <c r="G1303">
+        <v>40</v>
+      </c>
+      <c r="H1303">
+        <v>62</v>
+      </c>
+      <c r="I1303">
+        <v>-22</v>
+      </c>
+      <c r="J1303">
+        <v>29</v>
+      </c>
+      <c r="K1303">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>13</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1304">
+        <v>34</v>
+      </c>
+      <c r="D1304">
+        <v>9</v>
+      </c>
+      <c r="E1304">
+        <v>10</v>
+      </c>
+      <c r="F1304">
+        <v>15</v>
+      </c>
+      <c r="G1304">
+        <v>47</v>
+      </c>
+      <c r="H1304">
+        <v>60</v>
+      </c>
+      <c r="I1304">
+        <v>-13</v>
+      </c>
+      <c r="J1304">
+        <v>28</v>
+      </c>
+      <c r="K1304">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>14</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1305">
+        <v>34</v>
+      </c>
+      <c r="D1305">
+        <v>10</v>
+      </c>
+      <c r="E1305">
+        <v>7</v>
+      </c>
+      <c r="F1305">
+        <v>17</v>
+      </c>
+      <c r="G1305">
+        <v>50</v>
+      </c>
+      <c r="H1305">
+        <v>75</v>
+      </c>
+      <c r="I1305">
+        <v>-25</v>
+      </c>
+      <c r="J1305">
+        <v>27</v>
+      </c>
+      <c r="K1305">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>15</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1306">
+        <v>34</v>
+      </c>
+      <c r="D1306">
+        <v>8</v>
+      </c>
+      <c r="E1306">
+        <v>10</v>
+      </c>
+      <c r="F1306">
+        <v>16</v>
+      </c>
+      <c r="G1306">
+        <v>44</v>
+      </c>
+      <c r="H1306">
+        <v>62</v>
+      </c>
+      <c r="I1306">
+        <v>-18</v>
+      </c>
+      <c r="J1306">
+        <v>26</v>
+      </c>
+      <c r="K1306">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>16</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1307">
+        <v>34</v>
+      </c>
+      <c r="D1307">
+        <v>9</v>
+      </c>
+      <c r="E1307">
+        <v>7</v>
+      </c>
+      <c r="F1307">
+        <v>18</v>
+      </c>
+      <c r="G1307">
+        <v>44</v>
+      </c>
+      <c r="H1307">
+        <v>62</v>
+      </c>
+      <c r="I1307">
+        <v>-18</v>
+      </c>
+      <c r="J1307">
+        <v>25</v>
+      </c>
+      <c r="K1307">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>17</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1308">
+        <v>34</v>
+      </c>
+      <c r="D1308">
+        <v>9</v>
+      </c>
+      <c r="E1308">
+        <v>7</v>
+      </c>
+      <c r="F1308">
+        <v>18</v>
+      </c>
+      <c r="G1308">
+        <v>48</v>
+      </c>
+      <c r="H1308">
+        <v>71</v>
+      </c>
+      <c r="I1308">
+        <v>-23</v>
+      </c>
+      <c r="J1308">
+        <v>25</v>
+      </c>
+      <c r="K1308">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>18</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1309">
+        <v>34</v>
+      </c>
+      <c r="D1309">
+        <v>10</v>
+      </c>
+      <c r="E1309">
+        <v>4</v>
+      </c>
+      <c r="F1309">
+        <v>20</v>
+      </c>
+      <c r="G1309">
+        <v>41</v>
+      </c>
+      <c r="H1309">
+        <v>58</v>
+      </c>
+      <c r="I1309">
+        <v>-17</v>
+      </c>
+      <c r="J1309">
+        <v>24</v>
+      </c>
+      <c r="K1309">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>1</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1310">
+        <v>34</v>
+      </c>
+      <c r="D1310">
+        <v>21</v>
+      </c>
+      <c r="E1310">
+        <v>8</v>
+      </c>
+      <c r="F1310">
+        <v>5</v>
+      </c>
+      <c r="G1310">
+        <v>100</v>
+      </c>
+      <c r="H1310">
+        <v>48</v>
+      </c>
+      <c r="I1310">
+        <v>52</v>
+      </c>
+      <c r="J1310">
+        <v>50</v>
+      </c>
+      <c r="K1310">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>2</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1311">
+        <v>34</v>
+      </c>
+      <c r="D1311">
+        <v>22</v>
+      </c>
+      <c r="E1311">
+        <v>6</v>
+      </c>
+      <c r="F1311">
+        <v>6</v>
+      </c>
+      <c r="G1311">
+        <v>78</v>
+      </c>
+      <c r="H1311">
+        <v>47</v>
+      </c>
+      <c r="I1311">
+        <v>31</v>
+      </c>
+      <c r="J1311">
+        <v>50</v>
+      </c>
+      <c r="K1311">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>3</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1312">
+        <v>34</v>
+      </c>
+      <c r="D1312">
+        <v>17</v>
+      </c>
+      <c r="E1312">
+        <v>7</v>
+      </c>
+      <c r="F1312">
+        <v>10</v>
+      </c>
+      <c r="G1312">
+        <v>94</v>
+      </c>
+      <c r="H1312">
+        <v>67</v>
+      </c>
+      <c r="I1312">
+        <v>27</v>
+      </c>
+      <c r="J1312">
+        <v>41</v>
+      </c>
+      <c r="K1312">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>4</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1313">
+        <v>34</v>
+      </c>
+      <c r="D1313">
+        <v>17</v>
+      </c>
+      <c r="E1313">
+        <v>7</v>
+      </c>
+      <c r="F1313">
+        <v>10</v>
+      </c>
+      <c r="G1313">
+        <v>67</v>
+      </c>
+      <c r="H1313">
+        <v>58</v>
+      </c>
+      <c r="I1313">
+        <v>9</v>
+      </c>
+      <c r="J1313">
+        <v>41</v>
+      </c>
+      <c r="K1313">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>5</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1314">
+        <v>34</v>
+      </c>
+      <c r="D1314">
+        <v>15</v>
+      </c>
+      <c r="E1314">
+        <v>8</v>
+      </c>
+      <c r="F1314">
+        <v>11</v>
+      </c>
+      <c r="G1314">
+        <v>63</v>
+      </c>
+      <c r="H1314">
+        <v>50</v>
+      </c>
+      <c r="I1314">
+        <v>13</v>
+      </c>
+      <c r="J1314">
+        <v>38</v>
+      </c>
+      <c r="K1314">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>6</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1315">
+        <v>34</v>
+      </c>
+      <c r="D1315">
+        <v>13</v>
+      </c>
+      <c r="E1315">
+        <v>11</v>
+      </c>
+      <c r="F1315">
+        <v>10</v>
+      </c>
+      <c r="G1315">
+        <v>53</v>
+      </c>
+      <c r="H1315">
+        <v>51</v>
+      </c>
+      <c r="I1315">
+        <v>2</v>
+      </c>
+      <c r="J1315">
+        <v>37</v>
+      </c>
+      <c r="K1315">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>7</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1316">
+        <v>34</v>
+      </c>
+      <c r="D1316">
+        <v>12</v>
+      </c>
+      <c r="E1316">
+        <v>11</v>
+      </c>
+      <c r="F1316">
+        <v>11</v>
+      </c>
+      <c r="G1316">
+        <v>50</v>
+      </c>
+      <c r="H1316">
+        <v>51</v>
+      </c>
+      <c r="I1316">
+        <v>-1</v>
+      </c>
+      <c r="J1316">
+        <v>35</v>
+      </c>
+      <c r="K1316">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>8</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1317">
+        <v>34</v>
+      </c>
+      <c r="D1317">
+        <v>10</v>
+      </c>
+      <c r="E1317">
+        <v>15</v>
+      </c>
+      <c r="F1317">
+        <v>9</v>
+      </c>
+      <c r="G1317">
+        <v>53</v>
+      </c>
+      <c r="H1317">
+        <v>55</v>
+      </c>
+      <c r="I1317">
+        <v>-2</v>
+      </c>
+      <c r="J1317">
+        <v>35</v>
+      </c>
+      <c r="K1317">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>9</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1318">
+        <v>34</v>
+      </c>
+      <c r="D1318">
+        <v>10</v>
+      </c>
+      <c r="E1318">
+        <v>11</v>
+      </c>
+      <c r="F1318">
+        <v>13</v>
+      </c>
+      <c r="G1318">
+        <v>54</v>
+      </c>
+      <c r="H1318">
+        <v>54</v>
+      </c>
+      <c r="I1318">
+        <v>0</v>
+      </c>
+      <c r="J1318">
+        <v>31</v>
+      </c>
+      <c r="K1318">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>10</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1319">
+        <v>34</v>
+      </c>
+      <c r="D1319">
+        <v>8</v>
+      </c>
+      <c r="E1319">
+        <v>14</v>
+      </c>
+      <c r="F1319">
+        <v>12</v>
+      </c>
+      <c r="G1319">
+        <v>54</v>
+      </c>
+      <c r="H1319">
+        <v>61</v>
+      </c>
+      <c r="I1319">
+        <v>-7</v>
+      </c>
+      <c r="J1319">
+        <v>30</v>
+      </c>
+      <c r="K1319">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>11</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1320">
+        <v>34</v>
+      </c>
+      <c r="D1320">
+        <v>8</v>
+      </c>
+      <c r="E1320">
+        <v>14</v>
+      </c>
+      <c r="F1320">
+        <v>12</v>
+      </c>
+      <c r="G1320">
+        <v>54</v>
+      </c>
+      <c r="H1320">
+        <v>66</v>
+      </c>
+      <c r="I1320">
+        <v>-12</v>
+      </c>
+      <c r="J1320">
+        <v>30</v>
+      </c>
+      <c r="K1320">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>12</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1321">
+        <v>34</v>
+      </c>
+      <c r="D1321">
+        <v>12</v>
+      </c>
+      <c r="E1321">
+        <v>5</v>
+      </c>
+      <c r="F1321">
+        <v>17</v>
+      </c>
+      <c r="G1321">
+        <v>52</v>
+      </c>
+      <c r="H1321">
+        <v>63</v>
+      </c>
+      <c r="I1321">
+        <v>-11</v>
+      </c>
+      <c r="J1321">
+        <v>29</v>
+      </c>
+      <c r="K1321">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>13</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1322">
+        <v>34</v>
+      </c>
+      <c r="D1322">
+        <v>8</v>
+      </c>
+      <c r="E1322">
+        <v>13</v>
+      </c>
+      <c r="F1322">
+        <v>13</v>
+      </c>
+      <c r="G1322">
+        <v>45</v>
+      </c>
+      <c r="H1322">
+        <v>61</v>
+      </c>
+      <c r="I1322">
+        <v>-16</v>
+      </c>
+      <c r="J1322">
+        <v>29</v>
+      </c>
+      <c r="K1322">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>14</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1323">
+        <v>34</v>
+      </c>
+      <c r="D1323">
+        <v>9</v>
+      </c>
+      <c r="E1323">
+        <v>11</v>
+      </c>
+      <c r="F1323">
+        <v>14</v>
+      </c>
+      <c r="G1323">
+        <v>41</v>
+      </c>
+      <c r="H1323">
+        <v>62</v>
+      </c>
+      <c r="I1323">
+        <v>-21</v>
+      </c>
+      <c r="J1323">
+        <v>29</v>
+      </c>
+      <c r="K1323">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>15</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1324">
+        <v>34</v>
+      </c>
+      <c r="D1324">
+        <v>10</v>
+      </c>
+      <c r="E1324">
+        <v>8</v>
+      </c>
+      <c r="F1324">
+        <v>16</v>
+      </c>
+      <c r="G1324">
+        <v>42</v>
+      </c>
+      <c r="H1324">
+        <v>53</v>
+      </c>
+      <c r="I1324">
+        <v>-11</v>
+      </c>
+      <c r="J1324">
+        <v>28</v>
+      </c>
+      <c r="K1324">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>16</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1325">
+        <v>34</v>
+      </c>
+      <c r="D1325">
+        <v>7</v>
+      </c>
+      <c r="E1325">
+        <v>14</v>
+      </c>
+      <c r="F1325">
+        <v>13</v>
+      </c>
+      <c r="G1325">
+        <v>45</v>
+      </c>
+      <c r="H1325">
+        <v>60</v>
+      </c>
+      <c r="I1325">
+        <v>-15</v>
+      </c>
+      <c r="J1325">
+        <v>28</v>
+      </c>
+      <c r="K1325">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>17</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1326">
+        <v>34</v>
+      </c>
+      <c r="D1326">
+        <v>8</v>
+      </c>
+      <c r="E1326">
+        <v>10</v>
+      </c>
+      <c r="F1326">
+        <v>16</v>
+      </c>
+      <c r="G1326">
+        <v>49</v>
+      </c>
+      <c r="H1326">
+        <v>66</v>
+      </c>
+      <c r="I1326">
+        <v>-17</v>
+      </c>
+      <c r="J1326">
+        <v>26</v>
+      </c>
+      <c r="K1326">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>18</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1327">
+        <v>34</v>
+      </c>
+      <c r="D1327">
+        <v>9</v>
+      </c>
+      <c r="E1327">
+        <v>7</v>
+      </c>
+      <c r="F1327">
+        <v>18</v>
+      </c>
+      <c r="G1327">
+        <v>58</v>
+      </c>
+      <c r="H1327">
+        <v>79</v>
+      </c>
+      <c r="I1327">
+        <v>-21</v>
+      </c>
+      <c r="J1327">
+        <v>25</v>
+      </c>
+      <c r="K1327">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>1</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1328">
+        <v>1</v>
+      </c>
+      <c r="D1328">
+        <v>1</v>
+      </c>
+      <c r="E1328">
+        <v>0</v>
+      </c>
+      <c r="F1328">
+        <v>0</v>
+      </c>
+      <c r="G1328">
+        <v>5</v>
+      </c>
+      <c r="H1328">
+        <v>3</v>
+      </c>
+      <c r="I1328">
+        <v>2</v>
+      </c>
+      <c r="J1328">
+        <v>2</v>
+      </c>
+      <c r="K1328">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>2</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1329">
+        <v>1</v>
+      </c>
+      <c r="D1329">
+        <v>0</v>
+      </c>
+      <c r="E1329">
+        <v>0</v>
+      </c>
+      <c r="F1329">
+        <v>1</v>
+      </c>
+      <c r="G1329">
+        <v>3</v>
+      </c>
+      <c r="H1329">
+        <v>5</v>
+      </c>
+      <c r="I1329">
+        <v>-2</v>
+      </c>
+      <c r="J1329">
+        <v>0</v>
+      </c>
+      <c r="K1329">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>1</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1330">
+        <v>26</v>
+      </c>
+      <c r="D1330">
+        <v>15</v>
+      </c>
+      <c r="E1330">
+        <v>8</v>
+      </c>
+      <c r="F1330">
+        <v>3</v>
+      </c>
+      <c r="G1330">
+        <v>69</v>
+      </c>
+      <c r="H1330">
+        <v>35</v>
+      </c>
+      <c r="I1330">
+        <v>34</v>
+      </c>
+      <c r="J1330">
+        <v>38</v>
+      </c>
+      <c r="K1330">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>2</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1331">
+        <v>26</v>
+      </c>
+      <c r="D1331">
+        <v>13</v>
+      </c>
+      <c r="E1331">
+        <v>12</v>
+      </c>
+      <c r="F1331">
+        <v>1</v>
+      </c>
+      <c r="G1331">
+        <v>55</v>
+      </c>
+      <c r="H1331">
+        <v>28</v>
+      </c>
+      <c r="I1331">
+        <v>27</v>
+      </c>
+      <c r="J1331">
+        <v>38</v>
+      </c>
+      <c r="K1331">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>3</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1332">
+        <v>26</v>
+      </c>
+      <c r="D1332">
+        <v>13</v>
+      </c>
+      <c r="E1332">
+        <v>9</v>
+      </c>
+      <c r="F1332">
+        <v>4</v>
+      </c>
+      <c r="G1332">
+        <v>80</v>
+      </c>
+      <c r="H1332">
+        <v>47</v>
+      </c>
+      <c r="I1332">
+        <v>33</v>
+      </c>
+      <c r="J1332">
+        <v>35</v>
+      </c>
+      <c r="K1332">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>4</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1333">
+        <v>26</v>
+      </c>
+      <c r="D1333">
+        <v>12</v>
+      </c>
+      <c r="E1333">
+        <v>9</v>
+      </c>
+      <c r="F1333">
+        <v>5</v>
+      </c>
+      <c r="G1333">
+        <v>52</v>
+      </c>
+      <c r="H1333">
+        <v>34</v>
+      </c>
+      <c r="I1333">
+        <v>18</v>
+      </c>
+      <c r="J1333">
+        <v>33</v>
+      </c>
+      <c r="K1333">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>5</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1334">
+        <v>26</v>
+      </c>
+      <c r="D1334">
+        <v>11</v>
+      </c>
+      <c r="E1334">
+        <v>9</v>
+      </c>
+      <c r="F1334">
+        <v>6</v>
+      </c>
+      <c r="G1334">
+        <v>45</v>
+      </c>
+      <c r="H1334">
+        <v>40</v>
+      </c>
+      <c r="I1334">
+        <v>5</v>
+      </c>
+      <c r="J1334">
+        <v>31</v>
+      </c>
+      <c r="K1334">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>6</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1335">
+        <v>26</v>
+      </c>
+      <c r="D1335">
+        <v>11</v>
+      </c>
+      <c r="E1335">
+        <v>5</v>
+      </c>
+      <c r="F1335">
+        <v>10</v>
+      </c>
+      <c r="G1335">
+        <v>46</v>
+      </c>
+      <c r="H1335">
+        <v>49</v>
+      </c>
+      <c r="I1335">
+        <v>-3</v>
+      </c>
+      <c r="J1335">
+        <v>27</v>
+      </c>
+      <c r="K1335">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>7</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1336">
+        <v>26</v>
+      </c>
+      <c r="D1336">
+        <v>11</v>
+      </c>
+      <c r="E1336">
+        <v>4</v>
+      </c>
+      <c r="F1336">
+        <v>11</v>
+      </c>
+      <c r="G1336">
+        <v>41</v>
+      </c>
+      <c r="H1336">
+        <v>40</v>
+      </c>
+      <c r="I1336">
+        <v>1</v>
+      </c>
+      <c r="J1336">
+        <v>26</v>
+      </c>
+      <c r="K1336">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>8</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1337">
+        <v>26</v>
+      </c>
+      <c r="D1337">
+        <v>10</v>
+      </c>
+      <c r="E1337">
+        <v>6</v>
+      </c>
+      <c r="F1337">
+        <v>10</v>
+      </c>
+      <c r="G1337">
+        <v>51</v>
+      </c>
+      <c r="H1337">
+        <v>55</v>
+      </c>
+      <c r="I1337">
+        <v>-4</v>
+      </c>
+      <c r="J1337">
+        <v>26</v>
+      </c>
+      <c r="K1337">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>9</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1338">
+        <v>26</v>
+      </c>
+      <c r="D1338">
+        <v>11</v>
+      </c>
+      <c r="E1338">
+        <v>3</v>
+      </c>
+      <c r="F1338">
+        <v>12</v>
+      </c>
+      <c r="G1338">
+        <v>47</v>
+      </c>
+      <c r="H1338">
+        <v>60</v>
+      </c>
+      <c r="I1338">
+        <v>-13</v>
+      </c>
+      <c r="J1338">
+        <v>25</v>
+      </c>
+      <c r="K1338">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>10</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1339">
+        <v>26</v>
+      </c>
+      <c r="D1339">
+        <v>7</v>
+      </c>
+      <c r="E1339">
+        <v>8</v>
+      </c>
+      <c r="F1339">
+        <v>11</v>
+      </c>
+      <c r="G1339">
+        <v>38</v>
+      </c>
+      <c r="H1339">
+        <v>52</v>
+      </c>
+      <c r="I1339">
+        <v>-14</v>
+      </c>
+      <c r="J1339">
+        <v>22</v>
+      </c>
+      <c r="K1339">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>11</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1340">
+        <v>26</v>
+      </c>
+      <c r="D1340">
+        <v>7</v>
+      </c>
+      <c r="E1340">
+        <v>7</v>
+      </c>
+      <c r="F1340">
+        <v>12</v>
+      </c>
+      <c r="G1340">
+        <v>46</v>
+      </c>
+      <c r="H1340">
+        <v>57</v>
+      </c>
+      <c r="I1340">
+        <v>-11</v>
+      </c>
+      <c r="J1340">
+        <v>21</v>
+      </c>
+      <c r="K1340">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>12</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1341">
+        <v>26</v>
+      </c>
+      <c r="D1341">
+        <v>4</v>
+      </c>
+      <c r="E1341">
+        <v>7</v>
+      </c>
+      <c r="F1341">
+        <v>15</v>
+      </c>
+      <c r="G1341">
+        <v>39</v>
+      </c>
+      <c r="H1341">
+        <v>56</v>
+      </c>
+      <c r="I1341">
+        <v>-17</v>
+      </c>
+      <c r="J1341">
+        <v>15</v>
+      </c>
+      <c r="K1341">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>13</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1342">
+        <v>26</v>
+      </c>
+      <c r="D1342">
+        <v>5</v>
+      </c>
+      <c r="E1342">
+        <v>5</v>
+      </c>
+      <c r="F1342">
+        <v>16</v>
+      </c>
+      <c r="G1342">
+        <v>36</v>
+      </c>
+      <c r="H1342">
+        <v>58</v>
+      </c>
+      <c r="I1342">
+        <v>-22</v>
+      </c>
+      <c r="J1342">
+        <v>15</v>
+      </c>
+      <c r="K1342">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>14</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1343">
+        <v>26</v>
+      </c>
+      <c r="D1343">
+        <v>2</v>
+      </c>
+      <c r="E1343">
+        <v>8</v>
+      </c>
+      <c r="F1343">
+        <v>16</v>
+      </c>
+      <c r="G1343">
+        <v>31</v>
+      </c>
+      <c r="H1343">
+        <v>65</v>
+      </c>
+      <c r="I1343">
+        <v>-34</v>
+      </c>
+      <c r="J1343">
+        <v>12</v>
+      </c>
+      <c r="K1343">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>1</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1344">
+        <v>2</v>
+      </c>
+      <c r="D1344">
+        <v>0</v>
+      </c>
+      <c r="E1344">
+        <v>1</v>
+      </c>
+      <c r="F1344">
+        <v>1</v>
+      </c>
+      <c r="G1344">
+        <v>3</v>
+      </c>
+      <c r="H1344">
+        <v>4</v>
+      </c>
+      <c r="I1344">
+        <v>-1</v>
+      </c>
+      <c r="J1344">
+        <v>1</v>
+      </c>
+      <c r="K1344">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>2</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1345">
+        <v>2</v>
+      </c>
+      <c r="D1345">
+        <v>1</v>
+      </c>
+      <c r="E1345">
+        <v>1</v>
+      </c>
+      <c r="F1345">
+        <v>0</v>
+      </c>
+      <c r="G1345">
+        <v>4</v>
+      </c>
+      <c r="H1345">
+        <v>3</v>
+      </c>
+      <c r="I1345">
+        <v>1</v>
+      </c>
+      <c r="J1345">
+        <v>3</v>
+      </c>
+      <c r="K1345">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>1</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1346">
+        <v>26</v>
+      </c>
+      <c r="D1346">
+        <v>14</v>
+      </c>
+      <c r="E1346">
+        <v>7</v>
+      </c>
+      <c r="F1346">
+        <v>5</v>
+      </c>
+      <c r="G1346">
+        <v>52</v>
+      </c>
+      <c r="H1346">
+        <v>31</v>
+      </c>
+      <c r="I1346">
+        <v>21</v>
+      </c>
+      <c r="J1346">
+        <v>35</v>
+      </c>
+      <c r="K1346">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>2</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1347">
+        <v>26</v>
+      </c>
+      <c r="D1347">
+        <v>12</v>
+      </c>
+      <c r="E1347">
+        <v>8</v>
+      </c>
+      <c r="F1347">
+        <v>6</v>
+      </c>
+      <c r="G1347">
+        <v>43</v>
+      </c>
+      <c r="H1347">
+        <v>28</v>
+      </c>
+      <c r="I1347">
+        <v>15</v>
+      </c>
+      <c r="J1347">
+        <v>32</v>
+      </c>
+      <c r="K1347">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>3</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1348">
+        <v>26</v>
+      </c>
+      <c r="D1348">
+        <v>14</v>
+      </c>
+      <c r="E1348">
+        <v>3</v>
+      </c>
+      <c r="F1348">
+        <v>9</v>
+      </c>
+      <c r="G1348">
+        <v>46</v>
+      </c>
+      <c r="H1348">
+        <v>40</v>
+      </c>
+      <c r="I1348">
+        <v>6</v>
+      </c>
+      <c r="J1348">
+        <v>31</v>
+      </c>
+      <c r="K1348">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>4</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1349">
+        <v>26</v>
+      </c>
+      <c r="D1349">
+        <v>13</v>
+      </c>
+      <c r="E1349">
+        <v>4</v>
+      </c>
+      <c r="F1349">
+        <v>9</v>
+      </c>
+      <c r="G1349">
+        <v>48</v>
+      </c>
+      <c r="H1349">
+        <v>39</v>
+      </c>
+      <c r="I1349">
+        <v>9</v>
+      </c>
+      <c r="J1349">
+        <v>30</v>
+      </c>
+      <c r="K1349">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>5</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1350">
+        <v>26</v>
+      </c>
+      <c r="D1350">
+        <v>11</v>
+      </c>
+      <c r="E1350">
+        <v>7</v>
+      </c>
+      <c r="F1350">
+        <v>8</v>
+      </c>
+      <c r="G1350">
+        <v>50</v>
+      </c>
+      <c r="H1350">
+        <v>42</v>
+      </c>
+      <c r="I1350">
+        <v>8</v>
+      </c>
+      <c r="J1350">
+        <v>29</v>
+      </c>
+      <c r="K1350">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>6</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1351">
+        <v>26</v>
+      </c>
+      <c r="D1351">
+        <v>11</v>
+      </c>
+      <c r="E1351">
+        <v>5</v>
+      </c>
+      <c r="F1351">
+        <v>10</v>
+      </c>
+      <c r="G1351">
+        <v>40</v>
+      </c>
+      <c r="H1351">
+        <v>48</v>
+      </c>
+      <c r="I1351">
+        <v>-8</v>
+      </c>
+      <c r="J1351">
+        <v>27</v>
+      </c>
+      <c r="K1351">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>7</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1352">
+        <v>26</v>
+      </c>
+      <c r="D1352">
+        <v>9</v>
+      </c>
+      <c r="E1352">
+        <v>7</v>
+      </c>
+      <c r="F1352">
+        <v>10</v>
+      </c>
+      <c r="G1352">
+        <v>36</v>
+      </c>
+      <c r="H1352">
+        <v>37</v>
+      </c>
+      <c r="I1352">
+        <v>-1</v>
+      </c>
+      <c r="J1352">
+        <v>25</v>
+      </c>
+      <c r="K1352">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>8</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1353">
+        <v>26</v>
+      </c>
+      <c r="D1353">
+        <v>8</v>
+      </c>
+      <c r="E1353">
+        <v>9</v>
+      </c>
+      <c r="F1353">
+        <v>9</v>
+      </c>
+      <c r="G1353">
+        <v>40</v>
+      </c>
+      <c r="H1353">
+        <v>44</v>
+      </c>
+      <c r="I1353">
+        <v>-4</v>
+      </c>
+      <c r="J1353">
+        <v>25</v>
+      </c>
+      <c r="K1353">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>9</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1354">
+        <v>26</v>
+      </c>
+      <c r="D1354">
+        <v>11</v>
+      </c>
+      <c r="E1354">
+        <v>2</v>
+      </c>
+      <c r="F1354">
+        <v>13</v>
+      </c>
+      <c r="G1354">
+        <v>42</v>
+      </c>
+      <c r="H1354">
+        <v>38</v>
+      </c>
+      <c r="I1354">
+        <v>4</v>
+      </c>
+      <c r="J1354">
+        <v>24</v>
+      </c>
+      <c r="K1354">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>10</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1355">
+        <v>26</v>
+      </c>
+      <c r="D1355">
+        <v>7</v>
+      </c>
+      <c r="E1355">
+        <v>10</v>
+      </c>
+      <c r="F1355">
+        <v>9</v>
+      </c>
+      <c r="G1355">
+        <v>27</v>
+      </c>
+      <c r="H1355">
+        <v>32</v>
+      </c>
+      <c r="I1355">
+        <v>-5</v>
+      </c>
+      <c r="J1355">
+        <v>24</v>
+      </c>
+      <c r="K1355">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>11</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1356">
+        <v>26</v>
+      </c>
+      <c r="D1356">
+        <v>10</v>
+      </c>
+      <c r="E1356">
+        <v>4</v>
+      </c>
+      <c r="F1356">
+        <v>12</v>
+      </c>
+      <c r="G1356">
+        <v>32</v>
+      </c>
+      <c r="H1356">
+        <v>46</v>
+      </c>
+      <c r="I1356">
+        <v>-14</v>
+      </c>
+      <c r="J1356">
+        <v>24</v>
+      </c>
+      <c r="K1356">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>12</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1357">
+        <v>26</v>
+      </c>
+      <c r="D1357">
+        <v>9</v>
+      </c>
+      <c r="E1357">
+        <v>4</v>
+      </c>
+      <c r="F1357">
+        <v>13</v>
+      </c>
+      <c r="G1357">
+        <v>40</v>
+      </c>
+      <c r="H1357">
+        <v>45</v>
+      </c>
+      <c r="I1357">
+        <v>-5</v>
+      </c>
+      <c r="J1357">
+        <v>22</v>
+      </c>
+      <c r="K1357">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>13</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1358">
+        <v>26</v>
+      </c>
+      <c r="D1358">
+        <v>8</v>
+      </c>
+      <c r="E1358">
+        <v>2</v>
+      </c>
+      <c r="F1358">
+        <v>16</v>
+      </c>
+      <c r="G1358">
+        <v>40</v>
+      </c>
+      <c r="H1358">
+        <v>49</v>
+      </c>
+      <c r="I1358">
+        <v>-9</v>
+      </c>
+      <c r="J1358">
+        <v>18</v>
+      </c>
+      <c r="K1358">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>14</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1359">
+        <v>26</v>
+      </c>
+      <c r="D1359">
+        <v>5</v>
+      </c>
+      <c r="E1359">
+        <v>8</v>
+      </c>
+      <c r="F1359">
+        <v>13</v>
+      </c>
+      <c r="G1359">
+        <v>41</v>
+      </c>
+      <c r="H1359">
+        <v>58</v>
+      </c>
+      <c r="I1359">
+        <v>-17</v>
+      </c>
+      <c r="J1359">
+        <v>18</v>
+      </c>
+      <c r="K1359">
+        <v>1960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/base_torneos.xlsx
+++ b/base_torneos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aajai\Desktop\Trabajo\2020\shiny_futbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6757BE-00BF-4645-A72D-004DF5182C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E763A-7D6A-4069-BD92-4BCD133EB559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$1191</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="59">
   <si>
     <t>Pos</t>
   </si>
@@ -202,6 +210,9 @@
   </si>
   <si>
     <t>Ferrobádminton</t>
+  </si>
+  <si>
+    <t>Iberia</t>
   </si>
 </sst>
 </file>
@@ -519,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1359"/>
+  <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
-      <selection activeCell="B1359" sqref="B1359"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48095,6 +48106,6306 @@
         <v>1960</v>
       </c>
     </row>
+    <row r="1360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>1</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1360">
+        <v>26</v>
+      </c>
+      <c r="D1360">
+        <v>16</v>
+      </c>
+      <c r="E1360">
+        <v>6</v>
+      </c>
+      <c r="F1360">
+        <v>4</v>
+      </c>
+      <c r="G1360">
+        <v>61</v>
+      </c>
+      <c r="H1360">
+        <v>34</v>
+      </c>
+      <c r="I1360">
+        <v>27</v>
+      </c>
+      <c r="J1360">
+        <v>38</v>
+      </c>
+      <c r="K1360">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>2</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1361">
+        <v>26</v>
+      </c>
+      <c r="D1361">
+        <v>16</v>
+      </c>
+      <c r="E1361">
+        <v>6</v>
+      </c>
+      <c r="F1361">
+        <v>4</v>
+      </c>
+      <c r="G1361">
+        <v>57</v>
+      </c>
+      <c r="H1361">
+        <v>32</v>
+      </c>
+      <c r="I1361">
+        <v>25</v>
+      </c>
+      <c r="J1361">
+        <v>38</v>
+      </c>
+      <c r="K1361">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>3</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1362">
+        <v>26</v>
+      </c>
+      <c r="D1362">
+        <v>13</v>
+      </c>
+      <c r="E1362">
+        <v>8</v>
+      </c>
+      <c r="F1362">
+        <v>5</v>
+      </c>
+      <c r="G1362">
+        <v>46</v>
+      </c>
+      <c r="H1362">
+        <v>33</v>
+      </c>
+      <c r="I1362">
+        <v>13</v>
+      </c>
+      <c r="J1362">
+        <v>34</v>
+      </c>
+      <c r="K1362">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>4</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1363">
+        <v>26</v>
+      </c>
+      <c r="D1363">
+        <v>13</v>
+      </c>
+      <c r="E1363">
+        <v>8</v>
+      </c>
+      <c r="F1363">
+        <v>5</v>
+      </c>
+      <c r="G1363">
+        <v>51</v>
+      </c>
+      <c r="H1363">
+        <v>42</v>
+      </c>
+      <c r="I1363">
+        <v>9</v>
+      </c>
+      <c r="J1363">
+        <v>34</v>
+      </c>
+      <c r="K1363">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>5</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1364">
+        <v>26</v>
+      </c>
+      <c r="D1364">
+        <v>9</v>
+      </c>
+      <c r="E1364">
+        <v>9</v>
+      </c>
+      <c r="F1364">
+        <v>8</v>
+      </c>
+      <c r="G1364">
+        <v>42</v>
+      </c>
+      <c r="H1364">
+        <v>40</v>
+      </c>
+      <c r="I1364">
+        <v>2</v>
+      </c>
+      <c r="J1364">
+        <v>27</v>
+      </c>
+      <c r="K1364">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>6</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1365">
+        <v>26</v>
+      </c>
+      <c r="D1365">
+        <v>9</v>
+      </c>
+      <c r="E1365">
+        <v>8</v>
+      </c>
+      <c r="F1365">
+        <v>9</v>
+      </c>
+      <c r="G1365">
+        <v>32</v>
+      </c>
+      <c r="H1365">
+        <v>38</v>
+      </c>
+      <c r="I1365">
+        <v>-6</v>
+      </c>
+      <c r="J1365">
+        <v>26</v>
+      </c>
+      <c r="K1365">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>7</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1366">
+        <v>26</v>
+      </c>
+      <c r="D1366">
+        <v>11</v>
+      </c>
+      <c r="E1366">
+        <v>1</v>
+      </c>
+      <c r="F1366">
+        <v>14</v>
+      </c>
+      <c r="G1366">
+        <v>42</v>
+      </c>
+      <c r="H1366">
+        <v>49</v>
+      </c>
+      <c r="I1366">
+        <v>-7</v>
+      </c>
+      <c r="J1366">
+        <v>23</v>
+      </c>
+      <c r="K1366">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>8</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1367">
+        <v>26</v>
+      </c>
+      <c r="D1367">
+        <v>9</v>
+      </c>
+      <c r="E1367">
+        <v>5</v>
+      </c>
+      <c r="F1367">
+        <v>12</v>
+      </c>
+      <c r="G1367">
+        <v>45</v>
+      </c>
+      <c r="H1367">
+        <v>53</v>
+      </c>
+      <c r="I1367">
+        <v>-8</v>
+      </c>
+      <c r="J1367">
+        <v>23</v>
+      </c>
+      <c r="K1367">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>9</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1368">
+        <v>26</v>
+      </c>
+      <c r="D1368">
+        <v>8</v>
+      </c>
+      <c r="E1368">
+        <v>6</v>
+      </c>
+      <c r="F1368">
+        <v>12</v>
+      </c>
+      <c r="G1368">
+        <v>44</v>
+      </c>
+      <c r="H1368">
+        <v>42</v>
+      </c>
+      <c r="I1368">
+        <v>2</v>
+      </c>
+      <c r="J1368">
+        <v>22</v>
+      </c>
+      <c r="K1368">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>10</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1369">
+        <v>26</v>
+      </c>
+      <c r="D1369">
+        <v>8</v>
+      </c>
+      <c r="E1369">
+        <v>6</v>
+      </c>
+      <c r="F1369">
+        <v>12</v>
+      </c>
+      <c r="G1369">
+        <v>39</v>
+      </c>
+      <c r="H1369">
+        <v>50</v>
+      </c>
+      <c r="I1369">
+        <v>-11</v>
+      </c>
+      <c r="J1369">
+        <v>22</v>
+      </c>
+      <c r="K1369">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>11</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1370">
+        <v>26</v>
+      </c>
+      <c r="D1370">
+        <v>6</v>
+      </c>
+      <c r="E1370">
+        <v>9</v>
+      </c>
+      <c r="F1370">
+        <v>11</v>
+      </c>
+      <c r="G1370">
+        <v>36</v>
+      </c>
+      <c r="H1370">
+        <v>47</v>
+      </c>
+      <c r="I1370">
+        <v>-11</v>
+      </c>
+      <c r="J1370">
+        <v>21</v>
+      </c>
+      <c r="K1370">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>12</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1371">
+        <v>26</v>
+      </c>
+      <c r="D1371">
+        <v>7</v>
+      </c>
+      <c r="E1371">
+        <v>6</v>
+      </c>
+      <c r="F1371">
+        <v>13</v>
+      </c>
+      <c r="G1371">
+        <v>33</v>
+      </c>
+      <c r="H1371">
+        <v>41</v>
+      </c>
+      <c r="I1371">
+        <v>-8</v>
+      </c>
+      <c r="J1371">
+        <v>20</v>
+      </c>
+      <c r="K1371">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>13</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1372">
+        <v>26</v>
+      </c>
+      <c r="D1372">
+        <v>9</v>
+      </c>
+      <c r="E1372">
+        <v>1</v>
+      </c>
+      <c r="F1372">
+        <v>16</v>
+      </c>
+      <c r="G1372">
+        <v>48</v>
+      </c>
+      <c r="H1372">
+        <v>55</v>
+      </c>
+      <c r="I1372">
+        <v>-7</v>
+      </c>
+      <c r="J1372">
+        <v>19</v>
+      </c>
+      <c r="K1372">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>14</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1373">
+        <v>26</v>
+      </c>
+      <c r="D1373">
+        <v>6</v>
+      </c>
+      <c r="E1373">
+        <v>5</v>
+      </c>
+      <c r="F1373">
+        <v>15</v>
+      </c>
+      <c r="G1373">
+        <v>41</v>
+      </c>
+      <c r="H1373">
+        <v>61</v>
+      </c>
+      <c r="I1373">
+        <v>-20</v>
+      </c>
+      <c r="J1373">
+        <v>17</v>
+      </c>
+      <c r="K1373">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>1</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1374">
+        <v>1</v>
+      </c>
+      <c r="D1374">
+        <v>1</v>
+      </c>
+      <c r="E1374">
+        <v>0</v>
+      </c>
+      <c r="F1374">
+        <v>0</v>
+      </c>
+      <c r="G1374">
+        <v>2</v>
+      </c>
+      <c r="H1374">
+        <v>1</v>
+      </c>
+      <c r="I1374">
+        <v>1</v>
+      </c>
+      <c r="J1374">
+        <v>2</v>
+      </c>
+      <c r="K1374">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>2</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1375">
+        <v>1</v>
+      </c>
+      <c r="D1375">
+        <v>0</v>
+      </c>
+      <c r="E1375">
+        <v>0</v>
+      </c>
+      <c r="F1375">
+        <v>1</v>
+      </c>
+      <c r="G1375">
+        <v>1</v>
+      </c>
+      <c r="H1375">
+        <v>2</v>
+      </c>
+      <c r="I1375">
+        <v>-1</v>
+      </c>
+      <c r="J1375">
+        <v>0</v>
+      </c>
+      <c r="K1375">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>1</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1376">
+        <v>26</v>
+      </c>
+      <c r="D1376">
+        <v>13</v>
+      </c>
+      <c r="E1376">
+        <v>8</v>
+      </c>
+      <c r="F1376">
+        <v>5</v>
+      </c>
+      <c r="G1376">
+        <v>41</v>
+      </c>
+      <c r="H1376">
+        <v>31</v>
+      </c>
+      <c r="I1376">
+        <v>10</v>
+      </c>
+      <c r="J1376">
+        <v>34</v>
+      </c>
+      <c r="K1376">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>2</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1377">
+        <v>26</v>
+      </c>
+      <c r="D1377">
+        <v>13</v>
+      </c>
+      <c r="E1377">
+        <v>7</v>
+      </c>
+      <c r="F1377">
+        <v>6</v>
+      </c>
+      <c r="G1377">
+        <v>62</v>
+      </c>
+      <c r="H1377">
+        <v>48</v>
+      </c>
+      <c r="I1377">
+        <v>14</v>
+      </c>
+      <c r="J1377">
+        <v>33</v>
+      </c>
+      <c r="K1377">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>3</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1378">
+        <v>26</v>
+      </c>
+      <c r="D1378">
+        <v>14</v>
+      </c>
+      <c r="E1378">
+        <v>5</v>
+      </c>
+      <c r="F1378">
+        <v>7</v>
+      </c>
+      <c r="G1378">
+        <v>54</v>
+      </c>
+      <c r="H1378">
+        <v>45</v>
+      </c>
+      <c r="I1378">
+        <v>9</v>
+      </c>
+      <c r="J1378">
+        <v>33</v>
+      </c>
+      <c r="K1378">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>4</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1379">
+        <v>26</v>
+      </c>
+      <c r="D1379">
+        <v>10</v>
+      </c>
+      <c r="E1379">
+        <v>11</v>
+      </c>
+      <c r="F1379">
+        <v>5</v>
+      </c>
+      <c r="G1379">
+        <v>55</v>
+      </c>
+      <c r="H1379">
+        <v>43</v>
+      </c>
+      <c r="I1379">
+        <v>12</v>
+      </c>
+      <c r="J1379">
+        <v>31</v>
+      </c>
+      <c r="K1379">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>5</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1380">
+        <v>26</v>
+      </c>
+      <c r="D1380">
+        <v>13</v>
+      </c>
+      <c r="E1380">
+        <v>5</v>
+      </c>
+      <c r="F1380">
+        <v>8</v>
+      </c>
+      <c r="G1380">
+        <v>41</v>
+      </c>
+      <c r="H1380">
+        <v>37</v>
+      </c>
+      <c r="I1380">
+        <v>4</v>
+      </c>
+      <c r="J1380">
+        <v>31</v>
+      </c>
+      <c r="K1380">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>6</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1381">
+        <v>26</v>
+      </c>
+      <c r="D1381">
+        <v>9</v>
+      </c>
+      <c r="E1381">
+        <v>9</v>
+      </c>
+      <c r="F1381">
+        <v>8</v>
+      </c>
+      <c r="G1381">
+        <v>51</v>
+      </c>
+      <c r="H1381">
+        <v>47</v>
+      </c>
+      <c r="I1381">
+        <v>4</v>
+      </c>
+      <c r="J1381">
+        <v>27</v>
+      </c>
+      <c r="K1381">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>7</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1382">
+        <v>26</v>
+      </c>
+      <c r="D1382">
+        <v>10</v>
+      </c>
+      <c r="E1382">
+        <v>4</v>
+      </c>
+      <c r="F1382">
+        <v>12</v>
+      </c>
+      <c r="G1382">
+        <v>35</v>
+      </c>
+      <c r="H1382">
+        <v>34</v>
+      </c>
+      <c r="I1382">
+        <v>1</v>
+      </c>
+      <c r="J1382">
+        <v>24</v>
+      </c>
+      <c r="K1382">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>8</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1383">
+        <v>26</v>
+      </c>
+      <c r="D1383">
+        <v>11</v>
+      </c>
+      <c r="E1383">
+        <v>2</v>
+      </c>
+      <c r="F1383">
+        <v>13</v>
+      </c>
+      <c r="G1383">
+        <v>50</v>
+      </c>
+      <c r="H1383">
+        <v>50</v>
+      </c>
+      <c r="I1383">
+        <v>0</v>
+      </c>
+      <c r="J1383">
+        <v>24</v>
+      </c>
+      <c r="K1383">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>9</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1384">
+        <v>26</v>
+      </c>
+      <c r="D1384">
+        <v>10</v>
+      </c>
+      <c r="E1384">
+        <v>3</v>
+      </c>
+      <c r="F1384">
+        <v>13</v>
+      </c>
+      <c r="G1384">
+        <v>48</v>
+      </c>
+      <c r="H1384">
+        <v>51</v>
+      </c>
+      <c r="I1384">
+        <v>-3</v>
+      </c>
+      <c r="J1384">
+        <v>23</v>
+      </c>
+      <c r="K1384">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>10</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1385">
+        <v>26</v>
+      </c>
+      <c r="D1385">
+        <v>8</v>
+      </c>
+      <c r="E1385">
+        <v>6</v>
+      </c>
+      <c r="F1385">
+        <v>12</v>
+      </c>
+      <c r="G1385">
+        <v>42</v>
+      </c>
+      <c r="H1385">
+        <v>52</v>
+      </c>
+      <c r="I1385">
+        <v>-10</v>
+      </c>
+      <c r="J1385">
+        <v>22</v>
+      </c>
+      <c r="K1385">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>11</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1386">
+        <v>26</v>
+      </c>
+      <c r="D1386">
+        <v>8</v>
+      </c>
+      <c r="E1386">
+        <v>6</v>
+      </c>
+      <c r="F1386">
+        <v>12</v>
+      </c>
+      <c r="G1386">
+        <v>42</v>
+      </c>
+      <c r="H1386">
+        <v>57</v>
+      </c>
+      <c r="I1386">
+        <v>-15</v>
+      </c>
+      <c r="J1386">
+        <v>22</v>
+      </c>
+      <c r="K1386">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>12</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1387">
+        <v>26</v>
+      </c>
+      <c r="D1387">
+        <v>8</v>
+      </c>
+      <c r="E1387">
+        <v>5</v>
+      </c>
+      <c r="F1387">
+        <v>13</v>
+      </c>
+      <c r="G1387">
+        <v>50</v>
+      </c>
+      <c r="H1387">
+        <v>57</v>
+      </c>
+      <c r="I1387">
+        <v>-7</v>
+      </c>
+      <c r="J1387">
+        <v>21</v>
+      </c>
+      <c r="K1387">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>13</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1388">
+        <v>26</v>
+      </c>
+      <c r="D1388">
+        <v>6</v>
+      </c>
+      <c r="E1388">
+        <v>9</v>
+      </c>
+      <c r="F1388">
+        <v>11</v>
+      </c>
+      <c r="G1388">
+        <v>36</v>
+      </c>
+      <c r="H1388">
+        <v>42</v>
+      </c>
+      <c r="I1388">
+        <v>-6</v>
+      </c>
+      <c r="J1388">
+        <v>21</v>
+      </c>
+      <c r="K1388">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>14</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1389">
+        <v>26</v>
+      </c>
+      <c r="D1389">
+        <v>5</v>
+      </c>
+      <c r="E1389">
+        <v>8</v>
+      </c>
+      <c r="F1389">
+        <v>13</v>
+      </c>
+      <c r="G1389">
+        <v>39</v>
+      </c>
+      <c r="H1389">
+        <v>52</v>
+      </c>
+      <c r="I1389">
+        <v>-13</v>
+      </c>
+      <c r="J1389">
+        <v>18</v>
+      </c>
+      <c r="K1389">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>1</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1390">
+        <v>26</v>
+      </c>
+      <c r="D1390">
+        <v>15</v>
+      </c>
+      <c r="E1390">
+        <v>4</v>
+      </c>
+      <c r="F1390">
+        <v>7</v>
+      </c>
+      <c r="G1390">
+        <v>51</v>
+      </c>
+      <c r="H1390">
+        <v>42</v>
+      </c>
+      <c r="I1390">
+        <v>9</v>
+      </c>
+      <c r="J1390">
+        <v>34</v>
+      </c>
+      <c r="K1390">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>2</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1391">
+        <v>26</v>
+      </c>
+      <c r="D1391">
+        <v>10</v>
+      </c>
+      <c r="E1391">
+        <v>11</v>
+      </c>
+      <c r="F1391">
+        <v>5</v>
+      </c>
+      <c r="G1391">
+        <v>51</v>
+      </c>
+      <c r="H1391">
+        <v>41</v>
+      </c>
+      <c r="I1391">
+        <v>10</v>
+      </c>
+      <c r="J1391">
+        <v>31</v>
+      </c>
+      <c r="K1391">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>3</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1392">
+        <v>26</v>
+      </c>
+      <c r="D1392">
+        <v>11</v>
+      </c>
+      <c r="E1392">
+        <v>6</v>
+      </c>
+      <c r="F1392">
+        <v>9</v>
+      </c>
+      <c r="G1392">
+        <v>68</v>
+      </c>
+      <c r="H1392">
+        <v>54</v>
+      </c>
+      <c r="I1392">
+        <v>14</v>
+      </c>
+      <c r="J1392">
+        <v>28</v>
+      </c>
+      <c r="K1392">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>4</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1393">
+        <v>26</v>
+      </c>
+      <c r="D1393">
+        <v>11</v>
+      </c>
+      <c r="E1393">
+        <v>5</v>
+      </c>
+      <c r="F1393">
+        <v>10</v>
+      </c>
+      <c r="G1393">
+        <v>43</v>
+      </c>
+      <c r="H1393">
+        <v>37</v>
+      </c>
+      <c r="I1393">
+        <v>6</v>
+      </c>
+      <c r="J1393">
+        <v>27</v>
+      </c>
+      <c r="K1393">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>5</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1394">
+        <v>26</v>
+      </c>
+      <c r="D1394">
+        <v>11</v>
+      </c>
+      <c r="E1394">
+        <v>4</v>
+      </c>
+      <c r="F1394">
+        <v>11</v>
+      </c>
+      <c r="G1394">
+        <v>54</v>
+      </c>
+      <c r="H1394">
+        <v>49</v>
+      </c>
+      <c r="I1394">
+        <v>5</v>
+      </c>
+      <c r="J1394">
+        <v>26</v>
+      </c>
+      <c r="K1394">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>6</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1395">
+        <v>26</v>
+      </c>
+      <c r="D1395">
+        <v>11</v>
+      </c>
+      <c r="E1395">
+        <v>4</v>
+      </c>
+      <c r="F1395">
+        <v>11</v>
+      </c>
+      <c r="G1395">
+        <v>35</v>
+      </c>
+      <c r="H1395">
+        <v>37</v>
+      </c>
+      <c r="I1395">
+        <v>-2</v>
+      </c>
+      <c r="J1395">
+        <v>26</v>
+      </c>
+      <c r="K1395">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>7</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1396">
+        <v>26</v>
+      </c>
+      <c r="D1396">
+        <v>12</v>
+      </c>
+      <c r="E1396">
+        <v>2</v>
+      </c>
+      <c r="F1396">
+        <v>12</v>
+      </c>
+      <c r="G1396">
+        <v>49</v>
+      </c>
+      <c r="H1396">
+        <v>62</v>
+      </c>
+      <c r="I1396">
+        <v>-13</v>
+      </c>
+      <c r="J1396">
+        <v>26</v>
+      </c>
+      <c r="K1396">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>8</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1397">
+        <v>26</v>
+      </c>
+      <c r="D1397">
+        <v>10</v>
+      </c>
+      <c r="E1397">
+        <v>5</v>
+      </c>
+      <c r="F1397">
+        <v>11</v>
+      </c>
+      <c r="G1397">
+        <v>60</v>
+      </c>
+      <c r="H1397">
+        <v>53</v>
+      </c>
+      <c r="I1397">
+        <v>7</v>
+      </c>
+      <c r="J1397">
+        <v>25</v>
+      </c>
+      <c r="K1397">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>9</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1398">
+        <v>26</v>
+      </c>
+      <c r="D1398">
+        <v>10</v>
+      </c>
+      <c r="E1398">
+        <v>5</v>
+      </c>
+      <c r="F1398">
+        <v>11</v>
+      </c>
+      <c r="G1398">
+        <v>43</v>
+      </c>
+      <c r="H1398">
+        <v>58</v>
+      </c>
+      <c r="I1398">
+        <v>-15</v>
+      </c>
+      <c r="J1398">
+        <v>25</v>
+      </c>
+      <c r="K1398">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>10</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1399">
+        <v>26</v>
+      </c>
+      <c r="D1399">
+        <v>8</v>
+      </c>
+      <c r="E1399">
+        <v>7</v>
+      </c>
+      <c r="F1399">
+        <v>11</v>
+      </c>
+      <c r="G1399">
+        <v>58</v>
+      </c>
+      <c r="H1399">
+        <v>58</v>
+      </c>
+      <c r="I1399">
+        <v>0</v>
+      </c>
+      <c r="J1399">
+        <v>23</v>
+      </c>
+      <c r="K1399">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>11</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1400">
+        <v>26</v>
+      </c>
+      <c r="D1400">
+        <v>8</v>
+      </c>
+      <c r="E1400">
+        <v>5</v>
+      </c>
+      <c r="F1400">
+        <v>13</v>
+      </c>
+      <c r="G1400">
+        <v>40</v>
+      </c>
+      <c r="H1400">
+        <v>40</v>
+      </c>
+      <c r="I1400">
+        <v>0</v>
+      </c>
+      <c r="J1400">
+        <v>21</v>
+      </c>
+      <c r="K1400">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>12</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1401">
+        <v>26</v>
+      </c>
+      <c r="D1401">
+        <v>7</v>
+      </c>
+      <c r="E1401">
+        <v>7</v>
+      </c>
+      <c r="F1401">
+        <v>12</v>
+      </c>
+      <c r="G1401">
+        <v>34</v>
+      </c>
+      <c r="H1401">
+        <v>47</v>
+      </c>
+      <c r="I1401">
+        <v>-13</v>
+      </c>
+      <c r="J1401">
+        <v>21</v>
+      </c>
+      <c r="K1401">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>13</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1402">
+        <v>26</v>
+      </c>
+      <c r="D1402">
+        <v>8</v>
+      </c>
+      <c r="E1402">
+        <v>5</v>
+      </c>
+      <c r="F1402">
+        <v>13</v>
+      </c>
+      <c r="G1402">
+        <v>35</v>
+      </c>
+      <c r="H1402">
+        <v>49</v>
+      </c>
+      <c r="I1402">
+        <v>-14</v>
+      </c>
+      <c r="J1402">
+        <v>21</v>
+      </c>
+      <c r="K1402">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>14</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1403">
+        <v>26</v>
+      </c>
+      <c r="D1403">
+        <v>12</v>
+      </c>
+      <c r="E1403">
+        <v>6</v>
+      </c>
+      <c r="F1403">
+        <v>8</v>
+      </c>
+      <c r="G1403">
+        <v>42</v>
+      </c>
+      <c r="H1403">
+        <v>36</v>
+      </c>
+      <c r="I1403">
+        <v>6</v>
+      </c>
+      <c r="J1403">
+        <v>17</v>
+      </c>
+      <c r="K1403">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>1</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1404">
+        <v>26</v>
+      </c>
+      <c r="D1404">
+        <v>17</v>
+      </c>
+      <c r="E1404">
+        <v>4</v>
+      </c>
+      <c r="F1404">
+        <v>5</v>
+      </c>
+      <c r="G1404">
+        <v>60</v>
+      </c>
+      <c r="H1404">
+        <v>34</v>
+      </c>
+      <c r="I1404">
+        <v>26</v>
+      </c>
+      <c r="J1404">
+        <v>38</v>
+      </c>
+      <c r="K1404">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>2</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1405">
+        <v>26</v>
+      </c>
+      <c r="D1405">
+        <v>12</v>
+      </c>
+      <c r="E1405">
+        <v>9</v>
+      </c>
+      <c r="F1405">
+        <v>5</v>
+      </c>
+      <c r="G1405">
+        <v>44</v>
+      </c>
+      <c r="H1405">
+        <v>32</v>
+      </c>
+      <c r="I1405">
+        <v>12</v>
+      </c>
+      <c r="J1405">
+        <v>33</v>
+      </c>
+      <c r="K1405">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>3</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1406">
+        <v>26</v>
+      </c>
+      <c r="D1406">
+        <v>11</v>
+      </c>
+      <c r="E1406">
+        <v>9</v>
+      </c>
+      <c r="F1406">
+        <v>6</v>
+      </c>
+      <c r="G1406">
+        <v>39</v>
+      </c>
+      <c r="H1406">
+        <v>31</v>
+      </c>
+      <c r="I1406">
+        <v>8</v>
+      </c>
+      <c r="J1406">
+        <v>31</v>
+      </c>
+      <c r="K1406">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>4</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1407">
+        <v>26</v>
+      </c>
+      <c r="D1407">
+        <v>12</v>
+      </c>
+      <c r="E1407">
+        <v>6</v>
+      </c>
+      <c r="F1407">
+        <v>8</v>
+      </c>
+      <c r="G1407">
+        <v>48</v>
+      </c>
+      <c r="H1407">
+        <v>41</v>
+      </c>
+      <c r="I1407">
+        <v>7</v>
+      </c>
+      <c r="J1407">
+        <v>30</v>
+      </c>
+      <c r="K1407">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>5</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1408">
+        <v>26</v>
+      </c>
+      <c r="D1408">
+        <v>9</v>
+      </c>
+      <c r="E1408">
+        <v>11</v>
+      </c>
+      <c r="F1408">
+        <v>6</v>
+      </c>
+      <c r="G1408">
+        <v>44</v>
+      </c>
+      <c r="H1408">
+        <v>39</v>
+      </c>
+      <c r="I1408">
+        <v>5</v>
+      </c>
+      <c r="J1408">
+        <v>29</v>
+      </c>
+      <c r="K1408">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>6</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1409">
+        <v>26</v>
+      </c>
+      <c r="D1409">
+        <v>8</v>
+      </c>
+      <c r="E1409">
+        <v>11</v>
+      </c>
+      <c r="F1409">
+        <v>7</v>
+      </c>
+      <c r="G1409">
+        <v>49</v>
+      </c>
+      <c r="H1409">
+        <v>47</v>
+      </c>
+      <c r="I1409">
+        <v>2</v>
+      </c>
+      <c r="J1409">
+        <v>27</v>
+      </c>
+      <c r="K1409">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>7</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1410">
+        <v>26</v>
+      </c>
+      <c r="D1410">
+        <v>9</v>
+      </c>
+      <c r="E1410">
+        <v>8</v>
+      </c>
+      <c r="F1410">
+        <v>9</v>
+      </c>
+      <c r="G1410">
+        <v>40</v>
+      </c>
+      <c r="H1410">
+        <v>41</v>
+      </c>
+      <c r="I1410">
+        <v>-1</v>
+      </c>
+      <c r="J1410">
+        <v>26</v>
+      </c>
+      <c r="K1410">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>8</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1411">
+        <v>26</v>
+      </c>
+      <c r="D1411">
+        <v>8</v>
+      </c>
+      <c r="E1411">
+        <v>10</v>
+      </c>
+      <c r="F1411">
+        <v>8</v>
+      </c>
+      <c r="G1411">
+        <v>41</v>
+      </c>
+      <c r="H1411">
+        <v>43</v>
+      </c>
+      <c r="I1411">
+        <v>-2</v>
+      </c>
+      <c r="J1411">
+        <v>26</v>
+      </c>
+      <c r="K1411">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>9</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1412">
+        <v>26</v>
+      </c>
+      <c r="D1412">
+        <v>10</v>
+      </c>
+      <c r="E1412">
+        <v>5</v>
+      </c>
+      <c r="F1412">
+        <v>11</v>
+      </c>
+      <c r="G1412">
+        <v>52</v>
+      </c>
+      <c r="H1412">
+        <v>52</v>
+      </c>
+      <c r="I1412">
+        <v>0</v>
+      </c>
+      <c r="J1412">
+        <v>25</v>
+      </c>
+      <c r="K1412">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>10</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1413">
+        <v>26</v>
+      </c>
+      <c r="D1413">
+        <v>6</v>
+      </c>
+      <c r="E1413">
+        <v>11</v>
+      </c>
+      <c r="F1413">
+        <v>9</v>
+      </c>
+      <c r="G1413">
+        <v>34</v>
+      </c>
+      <c r="H1413">
+        <v>39</v>
+      </c>
+      <c r="I1413">
+        <v>-5</v>
+      </c>
+      <c r="J1413">
+        <v>23</v>
+      </c>
+      <c r="K1413">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>11</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1414">
+        <v>26</v>
+      </c>
+      <c r="D1414">
+        <v>8</v>
+      </c>
+      <c r="E1414">
+        <v>5</v>
+      </c>
+      <c r="F1414">
+        <v>13</v>
+      </c>
+      <c r="G1414">
+        <v>38</v>
+      </c>
+      <c r="H1414">
+        <v>45</v>
+      </c>
+      <c r="I1414">
+        <v>-7</v>
+      </c>
+      <c r="J1414">
+        <v>21</v>
+      </c>
+      <c r="K1414">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>12</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1415">
+        <v>26</v>
+      </c>
+      <c r="D1415">
+        <v>6</v>
+      </c>
+      <c r="E1415">
+        <v>7</v>
+      </c>
+      <c r="F1415">
+        <v>13</v>
+      </c>
+      <c r="G1415">
+        <v>28</v>
+      </c>
+      <c r="H1415">
+        <v>35</v>
+      </c>
+      <c r="I1415">
+        <v>-7</v>
+      </c>
+      <c r="J1415">
+        <v>19</v>
+      </c>
+      <c r="K1415">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>13</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1416">
+        <v>26</v>
+      </c>
+      <c r="D1416">
+        <v>5</v>
+      </c>
+      <c r="E1416">
+        <v>9</v>
+      </c>
+      <c r="F1416">
+        <v>12</v>
+      </c>
+      <c r="G1416">
+        <v>33</v>
+      </c>
+      <c r="H1416">
+        <v>51</v>
+      </c>
+      <c r="I1416">
+        <v>-18</v>
+      </c>
+      <c r="J1416">
+        <v>19</v>
+      </c>
+      <c r="K1416">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>14</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1417">
+        <v>26</v>
+      </c>
+      <c r="D1417">
+        <v>6</v>
+      </c>
+      <c r="E1417">
+        <v>5</v>
+      </c>
+      <c r="F1417">
+        <v>15</v>
+      </c>
+      <c r="G1417">
+        <v>36</v>
+      </c>
+      <c r="H1417">
+        <v>56</v>
+      </c>
+      <c r="I1417">
+        <v>-20</v>
+      </c>
+      <c r="J1417">
+        <v>17</v>
+      </c>
+      <c r="K1417">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1418">
+        <v>26</v>
+      </c>
+      <c r="D1418">
+        <v>16</v>
+      </c>
+      <c r="E1418">
+        <v>8</v>
+      </c>
+      <c r="F1418">
+        <v>2</v>
+      </c>
+      <c r="G1418">
+        <v>69</v>
+      </c>
+      <c r="H1418">
+        <v>39</v>
+      </c>
+      <c r="I1418">
+        <v>30</v>
+      </c>
+      <c r="J1418">
+        <v>40</v>
+      </c>
+      <c r="K1418">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>2</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1419">
+        <v>26</v>
+      </c>
+      <c r="D1419">
+        <v>11</v>
+      </c>
+      <c r="E1419">
+        <v>8</v>
+      </c>
+      <c r="F1419">
+        <v>7</v>
+      </c>
+      <c r="G1419">
+        <v>42</v>
+      </c>
+      <c r="H1419">
+        <v>36</v>
+      </c>
+      <c r="I1419">
+        <v>6</v>
+      </c>
+      <c r="J1419">
+        <v>30</v>
+      </c>
+      <c r="K1419">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>3</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1420">
+        <v>26</v>
+      </c>
+      <c r="D1420">
+        <v>10</v>
+      </c>
+      <c r="E1420">
+        <v>9</v>
+      </c>
+      <c r="F1420">
+        <v>7</v>
+      </c>
+      <c r="G1420">
+        <v>40</v>
+      </c>
+      <c r="H1420">
+        <v>34</v>
+      </c>
+      <c r="I1420">
+        <v>6</v>
+      </c>
+      <c r="J1420">
+        <v>29</v>
+      </c>
+      <c r="K1420">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>4</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1421">
+        <v>26</v>
+      </c>
+      <c r="D1421">
+        <v>10</v>
+      </c>
+      <c r="E1421">
+        <v>8</v>
+      </c>
+      <c r="F1421">
+        <v>8</v>
+      </c>
+      <c r="G1421">
+        <v>57</v>
+      </c>
+      <c r="H1421">
+        <v>42</v>
+      </c>
+      <c r="I1421">
+        <v>15</v>
+      </c>
+      <c r="J1421">
+        <v>28</v>
+      </c>
+      <c r="K1421">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>5</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1422">
+        <v>26</v>
+      </c>
+      <c r="D1422">
+        <v>10</v>
+      </c>
+      <c r="E1422">
+        <v>8</v>
+      </c>
+      <c r="F1422">
+        <v>8</v>
+      </c>
+      <c r="G1422">
+        <v>49</v>
+      </c>
+      <c r="H1422">
+        <v>39</v>
+      </c>
+      <c r="I1422">
+        <v>10</v>
+      </c>
+      <c r="J1422">
+        <v>28</v>
+      </c>
+      <c r="K1422">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>6</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1423">
+        <v>26</v>
+      </c>
+      <c r="D1423">
+        <v>8</v>
+      </c>
+      <c r="E1423">
+        <v>12</v>
+      </c>
+      <c r="F1423">
+        <v>6</v>
+      </c>
+      <c r="G1423">
+        <v>54</v>
+      </c>
+      <c r="H1423">
+        <v>54</v>
+      </c>
+      <c r="I1423">
+        <v>0</v>
+      </c>
+      <c r="J1423">
+        <v>28</v>
+      </c>
+      <c r="K1423">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>7</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1424">
+        <v>26</v>
+      </c>
+      <c r="D1424">
+        <v>9</v>
+      </c>
+      <c r="E1424">
+        <v>9</v>
+      </c>
+      <c r="F1424">
+        <v>8</v>
+      </c>
+      <c r="G1424">
+        <v>45</v>
+      </c>
+      <c r="H1424">
+        <v>41</v>
+      </c>
+      <c r="I1424">
+        <v>4</v>
+      </c>
+      <c r="J1424">
+        <v>27</v>
+      </c>
+      <c r="K1424">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>8</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1425">
+        <v>26</v>
+      </c>
+      <c r="D1425">
+        <v>10</v>
+      </c>
+      <c r="E1425">
+        <v>7</v>
+      </c>
+      <c r="F1425">
+        <v>9</v>
+      </c>
+      <c r="G1425">
+        <v>46</v>
+      </c>
+      <c r="H1425">
+        <v>47</v>
+      </c>
+      <c r="I1425">
+        <v>-1</v>
+      </c>
+      <c r="J1425">
+        <v>27</v>
+      </c>
+      <c r="K1425">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>9</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1426">
+        <v>26</v>
+      </c>
+      <c r="D1426">
+        <v>9</v>
+      </c>
+      <c r="E1426">
+        <v>8</v>
+      </c>
+      <c r="F1426">
+        <v>9</v>
+      </c>
+      <c r="G1426">
+        <v>45</v>
+      </c>
+      <c r="H1426">
+        <v>53</v>
+      </c>
+      <c r="I1426">
+        <v>-8</v>
+      </c>
+      <c r="J1426">
+        <v>26</v>
+      </c>
+      <c r="K1426">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>10</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1427">
+        <v>26</v>
+      </c>
+      <c r="D1427">
+        <v>7</v>
+      </c>
+      <c r="E1427">
+        <v>9</v>
+      </c>
+      <c r="F1427">
+        <v>10</v>
+      </c>
+      <c r="G1427">
+        <v>40</v>
+      </c>
+      <c r="H1427">
+        <v>48</v>
+      </c>
+      <c r="I1427">
+        <v>-8</v>
+      </c>
+      <c r="J1427">
+        <v>23</v>
+      </c>
+      <c r="K1427">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>11</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1428">
+        <v>26</v>
+      </c>
+      <c r="D1428">
+        <v>5</v>
+      </c>
+      <c r="E1428">
+        <v>12</v>
+      </c>
+      <c r="F1428">
+        <v>9</v>
+      </c>
+      <c r="G1428">
+        <v>36</v>
+      </c>
+      <c r="H1428">
+        <v>45</v>
+      </c>
+      <c r="I1428">
+        <v>-9</v>
+      </c>
+      <c r="J1428">
+        <v>22</v>
+      </c>
+      <c r="K1428">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>12</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1429">
+        <v>26</v>
+      </c>
+      <c r="D1429">
+        <v>4</v>
+      </c>
+      <c r="E1429">
+        <v>11</v>
+      </c>
+      <c r="F1429">
+        <v>11</v>
+      </c>
+      <c r="G1429">
+        <v>46</v>
+      </c>
+      <c r="H1429">
+        <v>59</v>
+      </c>
+      <c r="I1429">
+        <v>-13</v>
+      </c>
+      <c r="J1429">
+        <v>19</v>
+      </c>
+      <c r="K1429">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>13</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1430">
+        <v>26</v>
+      </c>
+      <c r="D1430">
+        <v>6</v>
+      </c>
+      <c r="E1430">
+        <v>7</v>
+      </c>
+      <c r="F1430">
+        <v>13</v>
+      </c>
+      <c r="G1430">
+        <v>27</v>
+      </c>
+      <c r="H1430">
+        <v>45</v>
+      </c>
+      <c r="I1430">
+        <v>-18</v>
+      </c>
+      <c r="J1430">
+        <v>19</v>
+      </c>
+      <c r="K1430">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>14</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1431">
+        <v>26</v>
+      </c>
+      <c r="D1431">
+        <v>7</v>
+      </c>
+      <c r="E1431">
+        <v>4</v>
+      </c>
+      <c r="F1431">
+        <v>15</v>
+      </c>
+      <c r="G1431">
+        <v>38</v>
+      </c>
+      <c r="H1431">
+        <v>52</v>
+      </c>
+      <c r="I1431">
+        <v>-14</v>
+      </c>
+      <c r="J1431">
+        <v>18</v>
+      </c>
+      <c r="K1431">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1432">
+        <v>7</v>
+      </c>
+      <c r="D1432">
+        <v>4</v>
+      </c>
+      <c r="E1432">
+        <v>1</v>
+      </c>
+      <c r="F1432">
+        <v>2</v>
+      </c>
+      <c r="G1432">
+        <v>23</v>
+      </c>
+      <c r="H1432">
+        <v>16</v>
+      </c>
+      <c r="I1432">
+        <v>7</v>
+      </c>
+      <c r="J1432">
+        <v>9</v>
+      </c>
+      <c r="K1432">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>2</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1433">
+        <v>7</v>
+      </c>
+      <c r="D1433">
+        <v>4</v>
+      </c>
+      <c r="E1433">
+        <v>1</v>
+      </c>
+      <c r="F1433">
+        <v>2</v>
+      </c>
+      <c r="G1433">
+        <v>19</v>
+      </c>
+      <c r="H1433">
+        <v>17</v>
+      </c>
+      <c r="I1433">
+        <v>2</v>
+      </c>
+      <c r="J1433">
+        <v>9</v>
+      </c>
+      <c r="K1433">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>3</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1434">
+        <v>7</v>
+      </c>
+      <c r="D1434">
+        <v>3</v>
+      </c>
+      <c r="E1434">
+        <v>2</v>
+      </c>
+      <c r="F1434">
+        <v>2</v>
+      </c>
+      <c r="G1434">
+        <v>19</v>
+      </c>
+      <c r="H1434">
+        <v>14</v>
+      </c>
+      <c r="I1434">
+        <v>5</v>
+      </c>
+      <c r="J1434">
+        <v>8</v>
+      </c>
+      <c r="K1434">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>4</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1435">
+        <v>7</v>
+      </c>
+      <c r="D1435">
+        <v>3</v>
+      </c>
+      <c r="E1435">
+        <v>2</v>
+      </c>
+      <c r="F1435">
+        <v>2</v>
+      </c>
+      <c r="G1435">
+        <v>13</v>
+      </c>
+      <c r="H1435">
+        <v>12</v>
+      </c>
+      <c r="I1435">
+        <v>1</v>
+      </c>
+      <c r="J1435">
+        <v>8</v>
+      </c>
+      <c r="K1435">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>5</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1436">
+        <v>7</v>
+      </c>
+      <c r="D1436">
+        <v>2</v>
+      </c>
+      <c r="E1436">
+        <v>3</v>
+      </c>
+      <c r="F1436">
+        <v>2</v>
+      </c>
+      <c r="G1436">
+        <v>12</v>
+      </c>
+      <c r="H1436">
+        <v>11</v>
+      </c>
+      <c r="I1436">
+        <v>1</v>
+      </c>
+      <c r="J1436">
+        <v>7</v>
+      </c>
+      <c r="K1436">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>6</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1437">
+        <v>7</v>
+      </c>
+      <c r="D1437">
+        <v>3</v>
+      </c>
+      <c r="E1437">
+        <v>0</v>
+      </c>
+      <c r="F1437">
+        <v>4</v>
+      </c>
+      <c r="G1437">
+        <v>22</v>
+      </c>
+      <c r="H1437">
+        <v>26</v>
+      </c>
+      <c r="I1437">
+        <v>-4</v>
+      </c>
+      <c r="J1437">
+        <v>6</v>
+      </c>
+      <c r="K1437">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>7</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1438">
+        <v>7</v>
+      </c>
+      <c r="D1438">
+        <v>1</v>
+      </c>
+      <c r="E1438">
+        <v>3</v>
+      </c>
+      <c r="F1438">
+        <v>3</v>
+      </c>
+      <c r="G1438">
+        <v>12</v>
+      </c>
+      <c r="H1438">
+        <v>16</v>
+      </c>
+      <c r="I1438">
+        <v>-4</v>
+      </c>
+      <c r="J1438">
+        <v>5</v>
+      </c>
+      <c r="K1438">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>8</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1439">
+        <v>7</v>
+      </c>
+      <c r="D1439">
+        <v>1</v>
+      </c>
+      <c r="E1439">
+        <v>2</v>
+      </c>
+      <c r="F1439">
+        <v>4</v>
+      </c>
+      <c r="G1439">
+        <v>5</v>
+      </c>
+      <c r="H1439">
+        <v>13</v>
+      </c>
+      <c r="I1439">
+        <v>-8</v>
+      </c>
+      <c r="J1439">
+        <v>4</v>
+      </c>
+      <c r="K1439">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1440">
+        <v>5</v>
+      </c>
+      <c r="D1440">
+        <v>3</v>
+      </c>
+      <c r="E1440">
+        <v>1</v>
+      </c>
+      <c r="F1440">
+        <v>1</v>
+      </c>
+      <c r="G1440">
+        <v>10</v>
+      </c>
+      <c r="H1440">
+        <v>8</v>
+      </c>
+      <c r="I1440">
+        <v>2</v>
+      </c>
+      <c r="J1440">
+        <v>7</v>
+      </c>
+      <c r="K1440">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>2</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1441">
+        <v>5</v>
+      </c>
+      <c r="D1441">
+        <v>3</v>
+      </c>
+      <c r="E1441">
+        <v>1</v>
+      </c>
+      <c r="F1441">
+        <v>1</v>
+      </c>
+      <c r="G1441">
+        <v>12</v>
+      </c>
+      <c r="H1441">
+        <v>11</v>
+      </c>
+      <c r="I1441">
+        <v>1</v>
+      </c>
+      <c r="J1441">
+        <v>7</v>
+      </c>
+      <c r="K1441">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>3</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1442">
+        <v>5</v>
+      </c>
+      <c r="D1442">
+        <v>2</v>
+      </c>
+      <c r="E1442">
+        <v>1</v>
+      </c>
+      <c r="F1442">
+        <v>2</v>
+      </c>
+      <c r="G1442">
+        <v>8</v>
+      </c>
+      <c r="H1442">
+        <v>7</v>
+      </c>
+      <c r="I1442">
+        <v>1</v>
+      </c>
+      <c r="J1442">
+        <v>5</v>
+      </c>
+      <c r="K1442">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>4</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1443">
+        <v>5</v>
+      </c>
+      <c r="D1443">
+        <v>1</v>
+      </c>
+      <c r="E1443">
+        <v>2</v>
+      </c>
+      <c r="F1443">
+        <v>2</v>
+      </c>
+      <c r="G1443">
+        <v>8</v>
+      </c>
+      <c r="H1443">
+        <v>8</v>
+      </c>
+      <c r="I1443">
+        <v>0</v>
+      </c>
+      <c r="J1443">
+        <v>4</v>
+      </c>
+      <c r="K1443">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>5</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1444">
+        <v>5</v>
+      </c>
+      <c r="D1444">
+        <v>1</v>
+      </c>
+      <c r="E1444">
+        <v>2</v>
+      </c>
+      <c r="F1444">
+        <v>2</v>
+      </c>
+      <c r="G1444">
+        <v>7</v>
+      </c>
+      <c r="H1444">
+        <v>10</v>
+      </c>
+      <c r="I1444">
+        <v>-3</v>
+      </c>
+      <c r="J1444">
+        <v>4</v>
+      </c>
+      <c r="K1444">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>6</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1445">
+        <v>5</v>
+      </c>
+      <c r="D1445">
+        <v>1</v>
+      </c>
+      <c r="E1445">
+        <v>1</v>
+      </c>
+      <c r="F1445">
+        <v>3</v>
+      </c>
+      <c r="G1445">
+        <v>11</v>
+      </c>
+      <c r="H1445">
+        <v>12</v>
+      </c>
+      <c r="I1445">
+        <v>-1</v>
+      </c>
+      <c r="J1445">
+        <v>3</v>
+      </c>
+      <c r="K1445">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1446">
+        <v>26</v>
+      </c>
+      <c r="D1446">
+        <v>16</v>
+      </c>
+      <c r="E1446">
+        <v>3</v>
+      </c>
+      <c r="F1446">
+        <v>7</v>
+      </c>
+      <c r="G1446">
+        <v>54</v>
+      </c>
+      <c r="H1446">
+        <v>42</v>
+      </c>
+      <c r="I1446">
+        <v>12</v>
+      </c>
+      <c r="J1446">
+        <v>35</v>
+      </c>
+      <c r="K1446">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>2</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1447">
+        <v>26</v>
+      </c>
+      <c r="D1447">
+        <v>16</v>
+      </c>
+      <c r="E1447">
+        <v>2</v>
+      </c>
+      <c r="F1447">
+        <v>8</v>
+      </c>
+      <c r="G1447">
+        <v>58</v>
+      </c>
+      <c r="H1447">
+        <v>37</v>
+      </c>
+      <c r="I1447">
+        <v>21</v>
+      </c>
+      <c r="J1447">
+        <v>34</v>
+      </c>
+      <c r="K1447">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>3</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1448">
+        <v>26</v>
+      </c>
+      <c r="D1448">
+        <v>12</v>
+      </c>
+      <c r="E1448">
+        <v>6</v>
+      </c>
+      <c r="F1448">
+        <v>8</v>
+      </c>
+      <c r="G1448">
+        <v>57</v>
+      </c>
+      <c r="H1448">
+        <v>42</v>
+      </c>
+      <c r="I1448">
+        <v>15</v>
+      </c>
+      <c r="J1448">
+        <v>30</v>
+      </c>
+      <c r="K1448">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>4</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1449">
+        <v>26</v>
+      </c>
+      <c r="D1449">
+        <v>11</v>
+      </c>
+      <c r="E1449">
+        <v>7</v>
+      </c>
+      <c r="F1449">
+        <v>8</v>
+      </c>
+      <c r="G1449">
+        <v>64</v>
+      </c>
+      <c r="H1449">
+        <v>47</v>
+      </c>
+      <c r="I1449">
+        <v>17</v>
+      </c>
+      <c r="J1449">
+        <v>29</v>
+      </c>
+      <c r="K1449">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>5</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1450">
+        <v>26</v>
+      </c>
+      <c r="D1450">
+        <v>9</v>
+      </c>
+      <c r="E1450">
+        <v>11</v>
+      </c>
+      <c r="F1450">
+        <v>6</v>
+      </c>
+      <c r="G1450">
+        <v>53</v>
+      </c>
+      <c r="H1450">
+        <v>45</v>
+      </c>
+      <c r="I1450">
+        <v>8</v>
+      </c>
+      <c r="J1450">
+        <v>29</v>
+      </c>
+      <c r="K1450">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>6</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1451">
+        <v>26</v>
+      </c>
+      <c r="D1451">
+        <v>9</v>
+      </c>
+      <c r="E1451">
+        <v>9</v>
+      </c>
+      <c r="F1451">
+        <v>8</v>
+      </c>
+      <c r="G1451">
+        <v>55</v>
+      </c>
+      <c r="H1451">
+        <v>52</v>
+      </c>
+      <c r="I1451">
+        <v>3</v>
+      </c>
+      <c r="J1451">
+        <v>27</v>
+      </c>
+      <c r="K1451">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>7</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1452">
+        <v>26</v>
+      </c>
+      <c r="D1452">
+        <v>9</v>
+      </c>
+      <c r="E1452">
+        <v>9</v>
+      </c>
+      <c r="F1452">
+        <v>8</v>
+      </c>
+      <c r="G1452">
+        <v>41</v>
+      </c>
+      <c r="H1452">
+        <v>40</v>
+      </c>
+      <c r="I1452">
+        <v>1</v>
+      </c>
+      <c r="J1452">
+        <v>27</v>
+      </c>
+      <c r="K1452">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>8</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1453">
+        <v>26</v>
+      </c>
+      <c r="D1453">
+        <v>9</v>
+      </c>
+      <c r="E1453">
+        <v>7</v>
+      </c>
+      <c r="F1453">
+        <v>10</v>
+      </c>
+      <c r="G1453">
+        <v>42</v>
+      </c>
+      <c r="H1453">
+        <v>47</v>
+      </c>
+      <c r="I1453">
+        <v>-5</v>
+      </c>
+      <c r="J1453">
+        <v>25</v>
+      </c>
+      <c r="K1453">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>9</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1454">
+        <v>26</v>
+      </c>
+      <c r="D1454">
+        <v>9</v>
+      </c>
+      <c r="E1454">
+        <v>7</v>
+      </c>
+      <c r="F1454">
+        <v>10</v>
+      </c>
+      <c r="G1454">
+        <v>41</v>
+      </c>
+      <c r="H1454">
+        <v>51</v>
+      </c>
+      <c r="I1454">
+        <v>-10</v>
+      </c>
+      <c r="J1454">
+        <v>25</v>
+      </c>
+      <c r="K1454">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>10</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1455">
+        <v>26</v>
+      </c>
+      <c r="D1455">
+        <v>7</v>
+      </c>
+      <c r="E1455">
+        <v>9</v>
+      </c>
+      <c r="F1455">
+        <v>10</v>
+      </c>
+      <c r="G1455">
+        <v>42</v>
+      </c>
+      <c r="H1455">
+        <v>48</v>
+      </c>
+      <c r="I1455">
+        <v>-6</v>
+      </c>
+      <c r="J1455">
+        <v>23</v>
+      </c>
+      <c r="K1455">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>11</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1456">
+        <v>26</v>
+      </c>
+      <c r="D1456">
+        <v>7</v>
+      </c>
+      <c r="E1456">
+        <v>7</v>
+      </c>
+      <c r="F1456">
+        <v>12</v>
+      </c>
+      <c r="G1456">
+        <v>50</v>
+      </c>
+      <c r="H1456">
+        <v>59</v>
+      </c>
+      <c r="I1456">
+        <v>-9</v>
+      </c>
+      <c r="J1456">
+        <v>21</v>
+      </c>
+      <c r="K1456">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>12</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1457">
+        <v>26</v>
+      </c>
+      <c r="D1457">
+        <v>8</v>
+      </c>
+      <c r="E1457">
+        <v>5</v>
+      </c>
+      <c r="F1457">
+        <v>13</v>
+      </c>
+      <c r="G1457">
+        <v>36</v>
+      </c>
+      <c r="H1457">
+        <v>46</v>
+      </c>
+      <c r="I1457">
+        <v>-10</v>
+      </c>
+      <c r="J1457">
+        <v>21</v>
+      </c>
+      <c r="K1457">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>13</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1458">
+        <v>26</v>
+      </c>
+      <c r="D1458">
+        <v>7</v>
+      </c>
+      <c r="E1458">
+        <v>7</v>
+      </c>
+      <c r="F1458">
+        <v>12</v>
+      </c>
+      <c r="G1458">
+        <v>36</v>
+      </c>
+      <c r="H1458">
+        <v>56</v>
+      </c>
+      <c r="I1458">
+        <v>-20</v>
+      </c>
+      <c r="J1458">
+        <v>21</v>
+      </c>
+      <c r="K1458">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>14</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1459">
+        <v>26</v>
+      </c>
+      <c r="D1459">
+        <v>6</v>
+      </c>
+      <c r="E1459">
+        <v>5</v>
+      </c>
+      <c r="F1459">
+        <v>15</v>
+      </c>
+      <c r="G1459">
+        <v>48</v>
+      </c>
+      <c r="H1459">
+        <v>65</v>
+      </c>
+      <c r="I1459">
+        <v>-17</v>
+      </c>
+      <c r="J1459">
+        <v>17</v>
+      </c>
+      <c r="K1459">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1460">
+        <v>7</v>
+      </c>
+      <c r="D1460">
+        <v>4</v>
+      </c>
+      <c r="E1460">
+        <v>3</v>
+      </c>
+      <c r="F1460">
+        <v>0</v>
+      </c>
+      <c r="G1460">
+        <v>15</v>
+      </c>
+      <c r="H1460">
+        <v>8</v>
+      </c>
+      <c r="I1460">
+        <v>7</v>
+      </c>
+      <c r="J1460">
+        <v>11</v>
+      </c>
+      <c r="K1460">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>2</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1461">
+        <v>7</v>
+      </c>
+      <c r="D1461">
+        <v>2</v>
+      </c>
+      <c r="E1461">
+        <v>5</v>
+      </c>
+      <c r="F1461">
+        <v>0</v>
+      </c>
+      <c r="G1461">
+        <v>16</v>
+      </c>
+      <c r="H1461">
+        <v>13</v>
+      </c>
+      <c r="I1461">
+        <v>3</v>
+      </c>
+      <c r="J1461">
+        <v>9</v>
+      </c>
+      <c r="K1461">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>3</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1462">
+        <v>7</v>
+      </c>
+      <c r="D1462">
+        <v>3</v>
+      </c>
+      <c r="E1462">
+        <v>2</v>
+      </c>
+      <c r="F1462">
+        <v>2</v>
+      </c>
+      <c r="G1462">
+        <v>18</v>
+      </c>
+      <c r="H1462">
+        <v>13</v>
+      </c>
+      <c r="I1462">
+        <v>5</v>
+      </c>
+      <c r="J1462">
+        <v>8</v>
+      </c>
+      <c r="K1462">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>4</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1463">
+        <v>7</v>
+      </c>
+      <c r="D1463">
+        <v>2</v>
+      </c>
+      <c r="E1463">
+        <v>4</v>
+      </c>
+      <c r="F1463">
+        <v>1</v>
+      </c>
+      <c r="G1463">
+        <v>11</v>
+      </c>
+      <c r="H1463">
+        <v>8</v>
+      </c>
+      <c r="I1463">
+        <v>3</v>
+      </c>
+      <c r="J1463">
+        <v>8</v>
+      </c>
+      <c r="K1463">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>5</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1464">
+        <v>7</v>
+      </c>
+      <c r="D1464">
+        <v>2</v>
+      </c>
+      <c r="E1464">
+        <v>4</v>
+      </c>
+      <c r="F1464">
+        <v>1</v>
+      </c>
+      <c r="G1464">
+        <v>13</v>
+      </c>
+      <c r="H1464">
+        <v>13</v>
+      </c>
+      <c r="I1464">
+        <v>0</v>
+      </c>
+      <c r="J1464">
+        <v>8</v>
+      </c>
+      <c r="K1464">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>6</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1465">
+        <v>7</v>
+      </c>
+      <c r="D1465">
+        <v>2</v>
+      </c>
+      <c r="E1465">
+        <v>3</v>
+      </c>
+      <c r="F1465">
+        <v>2</v>
+      </c>
+      <c r="G1465">
+        <v>10</v>
+      </c>
+      <c r="H1465">
+        <v>10</v>
+      </c>
+      <c r="I1465">
+        <v>0</v>
+      </c>
+      <c r="J1465">
+        <v>7</v>
+      </c>
+      <c r="K1465">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>7</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1466">
+        <v>7</v>
+      </c>
+      <c r="D1466">
+        <v>1</v>
+      </c>
+      <c r="E1466">
+        <v>2</v>
+      </c>
+      <c r="F1466">
+        <v>4</v>
+      </c>
+      <c r="G1466">
+        <v>12</v>
+      </c>
+      <c r="H1466">
+        <v>19</v>
+      </c>
+      <c r="I1466">
+        <v>-7</v>
+      </c>
+      <c r="J1466">
+        <v>4</v>
+      </c>
+      <c r="K1466">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>8</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1467">
+        <v>7</v>
+      </c>
+      <c r="D1467">
+        <v>0</v>
+      </c>
+      <c r="E1467">
+        <v>1</v>
+      </c>
+      <c r="F1467">
+        <v>6</v>
+      </c>
+      <c r="G1467">
+        <v>12</v>
+      </c>
+      <c r="H1467">
+        <v>23</v>
+      </c>
+      <c r="I1467">
+        <v>-11</v>
+      </c>
+      <c r="J1467">
+        <v>1</v>
+      </c>
+      <c r="K1467">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1468">
+        <v>5</v>
+      </c>
+      <c r="D1468">
+        <v>5</v>
+      </c>
+      <c r="E1468">
+        <v>0</v>
+      </c>
+      <c r="F1468">
+        <v>0</v>
+      </c>
+      <c r="G1468">
+        <v>17</v>
+      </c>
+      <c r="H1468">
+        <v>5</v>
+      </c>
+      <c r="I1468">
+        <v>12</v>
+      </c>
+      <c r="J1468">
+        <v>10</v>
+      </c>
+      <c r="K1468">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>2</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1469">
+        <v>5</v>
+      </c>
+      <c r="D1469">
+        <v>3</v>
+      </c>
+      <c r="E1469">
+        <v>1</v>
+      </c>
+      <c r="F1469">
+        <v>1</v>
+      </c>
+      <c r="G1469">
+        <v>12</v>
+      </c>
+      <c r="H1469">
+        <v>8</v>
+      </c>
+      <c r="I1469">
+        <v>4</v>
+      </c>
+      <c r="J1469">
+        <v>7</v>
+      </c>
+      <c r="K1469">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>3</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1470">
+        <v>5</v>
+      </c>
+      <c r="D1470">
+        <v>2</v>
+      </c>
+      <c r="E1470">
+        <v>1</v>
+      </c>
+      <c r="F1470">
+        <v>2</v>
+      </c>
+      <c r="G1470">
+        <v>13</v>
+      </c>
+      <c r="H1470">
+        <v>10</v>
+      </c>
+      <c r="I1470">
+        <v>3</v>
+      </c>
+      <c r="J1470">
+        <v>5</v>
+      </c>
+      <c r="K1470">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>4</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1471">
+        <v>5</v>
+      </c>
+      <c r="D1471">
+        <v>1</v>
+      </c>
+      <c r="E1471">
+        <v>1</v>
+      </c>
+      <c r="F1471">
+        <v>3</v>
+      </c>
+      <c r="G1471">
+        <v>8</v>
+      </c>
+      <c r="H1471">
+        <v>13</v>
+      </c>
+      <c r="I1471">
+        <v>-5</v>
+      </c>
+      <c r="J1471">
+        <v>3</v>
+      </c>
+      <c r="K1471">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>5</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1472">
+        <v>5</v>
+      </c>
+      <c r="D1472">
+        <v>1</v>
+      </c>
+      <c r="E1472">
+        <v>1</v>
+      </c>
+      <c r="F1472">
+        <v>3</v>
+      </c>
+      <c r="G1472">
+        <v>6</v>
+      </c>
+      <c r="H1472">
+        <v>16</v>
+      </c>
+      <c r="I1472">
+        <v>-10</v>
+      </c>
+      <c r="J1472">
+        <v>3</v>
+      </c>
+      <c r="K1472">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>6</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1473">
+        <v>5</v>
+      </c>
+      <c r="D1473">
+        <v>1</v>
+      </c>
+      <c r="E1473">
+        <v>0</v>
+      </c>
+      <c r="F1473">
+        <v>4</v>
+      </c>
+      <c r="G1473">
+        <v>9</v>
+      </c>
+      <c r="H1473">
+        <v>13</v>
+      </c>
+      <c r="I1473">
+        <v>-4</v>
+      </c>
+      <c r="J1473">
+        <v>2</v>
+      </c>
+      <c r="K1473">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1474">
+        <v>26</v>
+      </c>
+      <c r="D1474">
+        <v>18</v>
+      </c>
+      <c r="E1474">
+        <v>5</v>
+      </c>
+      <c r="F1474">
+        <v>3</v>
+      </c>
+      <c r="G1474">
+        <v>80</v>
+      </c>
+      <c r="H1474">
+        <v>32</v>
+      </c>
+      <c r="I1474">
+        <v>48</v>
+      </c>
+      <c r="J1474">
+        <v>41</v>
+      </c>
+      <c r="K1474">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>2</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1475">
+        <v>26</v>
+      </c>
+      <c r="D1475">
+        <v>13</v>
+      </c>
+      <c r="E1475">
+        <v>7</v>
+      </c>
+      <c r="F1475">
+        <v>6</v>
+      </c>
+      <c r="G1475">
+        <v>63</v>
+      </c>
+      <c r="H1475">
+        <v>47</v>
+      </c>
+      <c r="I1475">
+        <v>16</v>
+      </c>
+      <c r="J1475">
+        <v>33</v>
+      </c>
+      <c r="K1475">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>3</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1476">
+        <v>26</v>
+      </c>
+      <c r="D1476">
+        <v>14</v>
+      </c>
+      <c r="E1476">
+        <v>5</v>
+      </c>
+      <c r="F1476">
+        <v>7</v>
+      </c>
+      <c r="G1476">
+        <v>47</v>
+      </c>
+      <c r="H1476">
+        <v>36</v>
+      </c>
+      <c r="I1476">
+        <v>11</v>
+      </c>
+      <c r="J1476">
+        <v>33</v>
+      </c>
+      <c r="K1476">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>4</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1477">
+        <v>26</v>
+      </c>
+      <c r="D1477">
+        <v>13</v>
+      </c>
+      <c r="E1477">
+        <v>4</v>
+      </c>
+      <c r="F1477">
+        <v>9</v>
+      </c>
+      <c r="G1477">
+        <v>47</v>
+      </c>
+      <c r="H1477">
+        <v>37</v>
+      </c>
+      <c r="I1477">
+        <v>10</v>
+      </c>
+      <c r="J1477">
+        <v>30</v>
+      </c>
+      <c r="K1477">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>5</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1478">
+        <v>26</v>
+      </c>
+      <c r="D1478">
+        <v>13</v>
+      </c>
+      <c r="E1478">
+        <v>4</v>
+      </c>
+      <c r="F1478">
+        <v>9</v>
+      </c>
+      <c r="G1478">
+        <v>43</v>
+      </c>
+      <c r="H1478">
+        <v>48</v>
+      </c>
+      <c r="I1478">
+        <v>-5</v>
+      </c>
+      <c r="J1478">
+        <v>30</v>
+      </c>
+      <c r="K1478">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>6</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1479">
+        <v>26</v>
+      </c>
+      <c r="D1479">
+        <v>11</v>
+      </c>
+      <c r="E1479">
+        <v>5</v>
+      </c>
+      <c r="F1479">
+        <v>10</v>
+      </c>
+      <c r="G1479">
+        <v>49</v>
+      </c>
+      <c r="H1479">
+        <v>49</v>
+      </c>
+      <c r="I1479">
+        <v>0</v>
+      </c>
+      <c r="J1479">
+        <v>27</v>
+      </c>
+      <c r="K1479">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>7</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1480">
+        <v>26</v>
+      </c>
+      <c r="D1480">
+        <v>11</v>
+      </c>
+      <c r="E1480">
+        <v>5</v>
+      </c>
+      <c r="F1480">
+        <v>10</v>
+      </c>
+      <c r="G1480">
+        <v>55</v>
+      </c>
+      <c r="H1480">
+        <v>56</v>
+      </c>
+      <c r="I1480">
+        <v>-1</v>
+      </c>
+      <c r="J1480">
+        <v>27</v>
+      </c>
+      <c r="K1480">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>8</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1481">
+        <v>26</v>
+      </c>
+      <c r="D1481">
+        <v>9</v>
+      </c>
+      <c r="E1481">
+        <v>8</v>
+      </c>
+      <c r="F1481">
+        <v>9</v>
+      </c>
+      <c r="G1481">
+        <v>49</v>
+      </c>
+      <c r="H1481">
+        <v>43</v>
+      </c>
+      <c r="I1481">
+        <v>6</v>
+      </c>
+      <c r="J1481">
+        <v>26</v>
+      </c>
+      <c r="K1481">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>9</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1482">
+        <v>26</v>
+      </c>
+      <c r="D1482">
+        <v>10</v>
+      </c>
+      <c r="E1482">
+        <v>5</v>
+      </c>
+      <c r="F1482">
+        <v>11</v>
+      </c>
+      <c r="G1482">
+        <v>52</v>
+      </c>
+      <c r="H1482">
+        <v>49</v>
+      </c>
+      <c r="I1482">
+        <v>3</v>
+      </c>
+      <c r="J1482">
+        <v>25</v>
+      </c>
+      <c r="K1482">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>10</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1483">
+        <v>26</v>
+      </c>
+      <c r="D1483">
+        <v>9</v>
+      </c>
+      <c r="E1483">
+        <v>6</v>
+      </c>
+      <c r="F1483">
+        <v>11</v>
+      </c>
+      <c r="G1483">
+        <v>50</v>
+      </c>
+      <c r="H1483">
+        <v>52</v>
+      </c>
+      <c r="I1483">
+        <v>-2</v>
+      </c>
+      <c r="J1483">
+        <v>24</v>
+      </c>
+      <c r="K1483">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>11</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1484">
+        <v>26</v>
+      </c>
+      <c r="D1484">
+        <v>9</v>
+      </c>
+      <c r="E1484">
+        <v>5</v>
+      </c>
+      <c r="F1484">
+        <v>12</v>
+      </c>
+      <c r="G1484">
+        <v>54</v>
+      </c>
+      <c r="H1484">
+        <v>67</v>
+      </c>
+      <c r="I1484">
+        <v>-13</v>
+      </c>
+      <c r="J1484">
+        <v>23</v>
+      </c>
+      <c r="K1484">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>12</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1485">
+        <v>26</v>
+      </c>
+      <c r="D1485">
+        <v>7</v>
+      </c>
+      <c r="E1485">
+        <v>5</v>
+      </c>
+      <c r="F1485">
+        <v>14</v>
+      </c>
+      <c r="G1485">
+        <v>34</v>
+      </c>
+      <c r="H1485">
+        <v>54</v>
+      </c>
+      <c r="I1485">
+        <v>-20</v>
+      </c>
+      <c r="J1485">
+        <v>19</v>
+      </c>
+      <c r="K1485">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>13</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1486">
+        <v>26</v>
+      </c>
+      <c r="D1486">
+        <v>5</v>
+      </c>
+      <c r="E1486">
+        <v>5</v>
+      </c>
+      <c r="F1486">
+        <v>16</v>
+      </c>
+      <c r="G1486">
+        <v>43</v>
+      </c>
+      <c r="H1486">
+        <v>66</v>
+      </c>
+      <c r="I1486">
+        <v>-23</v>
+      </c>
+      <c r="J1486">
+        <v>15</v>
+      </c>
+      <c r="K1486">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>14</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1487">
+        <v>26</v>
+      </c>
+      <c r="D1487">
+        <v>2</v>
+      </c>
+      <c r="E1487">
+        <v>7</v>
+      </c>
+      <c r="F1487">
+        <v>17</v>
+      </c>
+      <c r="G1487">
+        <v>31</v>
+      </c>
+      <c r="H1487">
+        <v>61</v>
+      </c>
+      <c r="I1487">
+        <v>-30</v>
+      </c>
+      <c r="J1487">
+        <v>11</v>
+      </c>
+      <c r="K1487">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>1</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1488">
+        <v>33</v>
+      </c>
+      <c r="D1488">
+        <v>22</v>
+      </c>
+      <c r="E1488">
+        <v>4</v>
+      </c>
+      <c r="F1488">
+        <v>7</v>
+      </c>
+      <c r="G1488">
+        <v>78</v>
+      </c>
+      <c r="H1488">
+        <v>48</v>
+      </c>
+      <c r="I1488">
+        <v>30</v>
+      </c>
+      <c r="J1488">
+        <v>48</v>
+      </c>
+      <c r="K1488">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>2</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1489">
+        <v>33</v>
+      </c>
+      <c r="D1489">
+        <v>17</v>
+      </c>
+      <c r="E1489">
+        <v>11</v>
+      </c>
+      <c r="F1489">
+        <v>5</v>
+      </c>
+      <c r="G1489">
+        <v>68</v>
+      </c>
+      <c r="H1489">
+        <v>45</v>
+      </c>
+      <c r="I1489">
+        <v>23</v>
+      </c>
+      <c r="J1489">
+        <v>45</v>
+      </c>
+      <c r="K1489">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>3</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1490">
+        <v>33</v>
+      </c>
+      <c r="D1490">
+        <v>14</v>
+      </c>
+      <c r="E1490">
+        <v>8</v>
+      </c>
+      <c r="F1490">
+        <v>11</v>
+      </c>
+      <c r="G1490">
+        <v>65</v>
+      </c>
+      <c r="H1490">
+        <v>55</v>
+      </c>
+      <c r="I1490">
+        <v>10</v>
+      </c>
+      <c r="J1490">
+        <v>36</v>
+      </c>
+      <c r="K1490">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>4</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1491">
+        <v>33</v>
+      </c>
+      <c r="D1491">
+        <v>13</v>
+      </c>
+      <c r="E1491">
+        <v>10</v>
+      </c>
+      <c r="F1491">
+        <v>10</v>
+      </c>
+      <c r="G1491">
+        <v>59</v>
+      </c>
+      <c r="H1491">
+        <v>52</v>
+      </c>
+      <c r="I1491">
+        <v>7</v>
+      </c>
+      <c r="J1491">
+        <v>36</v>
+      </c>
+      <c r="K1491">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>5</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1492">
+        <v>33</v>
+      </c>
+      <c r="D1492">
+        <v>12</v>
+      </c>
+      <c r="E1492">
+        <v>11</v>
+      </c>
+      <c r="F1492">
+        <v>10</v>
+      </c>
+      <c r="G1492">
+        <v>68</v>
+      </c>
+      <c r="H1492">
+        <v>59</v>
+      </c>
+      <c r="I1492">
+        <v>9</v>
+      </c>
+      <c r="J1492">
+        <v>35</v>
+      </c>
+      <c r="K1492">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>6</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1493">
+        <v>33</v>
+      </c>
+      <c r="D1493">
+        <v>14</v>
+      </c>
+      <c r="E1493">
+        <v>5</v>
+      </c>
+      <c r="F1493">
+        <v>14</v>
+      </c>
+      <c r="G1493">
+        <v>64</v>
+      </c>
+      <c r="H1493">
+        <v>65</v>
+      </c>
+      <c r="I1493">
+        <v>-1</v>
+      </c>
+      <c r="J1493">
+        <v>33</v>
+      </c>
+      <c r="K1493">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>7</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1494">
+        <v>33</v>
+      </c>
+      <c r="D1494">
+        <v>13</v>
+      </c>
+      <c r="E1494">
+        <v>7</v>
+      </c>
+      <c r="F1494">
+        <v>13</v>
+      </c>
+      <c r="G1494">
+        <v>63</v>
+      </c>
+      <c r="H1494">
+        <v>71</v>
+      </c>
+      <c r="I1494">
+        <v>-8</v>
+      </c>
+      <c r="J1494">
+        <v>33</v>
+      </c>
+      <c r="K1494">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>8</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1495">
+        <v>33</v>
+      </c>
+      <c r="D1495">
+        <v>10</v>
+      </c>
+      <c r="E1495">
+        <v>9</v>
+      </c>
+      <c r="F1495">
+        <v>14</v>
+      </c>
+      <c r="G1495">
+        <v>59</v>
+      </c>
+      <c r="H1495">
+        <v>64</v>
+      </c>
+      <c r="I1495">
+        <v>-5</v>
+      </c>
+      <c r="J1495">
+        <v>29</v>
+      </c>
+      <c r="K1495">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>9</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1496">
+        <v>33</v>
+      </c>
+      <c r="D1496">
+        <v>11</v>
+      </c>
+      <c r="E1496">
+        <v>7</v>
+      </c>
+      <c r="F1496">
+        <v>15</v>
+      </c>
+      <c r="G1496">
+        <v>51</v>
+      </c>
+      <c r="H1496">
+        <v>65</v>
+      </c>
+      <c r="I1496">
+        <v>-14</v>
+      </c>
+      <c r="J1496">
+        <v>29</v>
+      </c>
+      <c r="K1496">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>10</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1497">
+        <v>33</v>
+      </c>
+      <c r="D1497">
+        <v>9</v>
+      </c>
+      <c r="E1497">
+        <v>9</v>
+      </c>
+      <c r="F1497">
+        <v>15</v>
+      </c>
+      <c r="G1497">
+        <v>61</v>
+      </c>
+      <c r="H1497">
+        <v>62</v>
+      </c>
+      <c r="I1497">
+        <v>-1</v>
+      </c>
+      <c r="J1497">
+        <v>27</v>
+      </c>
+      <c r="K1497">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>11</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1498">
+        <v>33</v>
+      </c>
+      <c r="D1498">
+        <v>8</v>
+      </c>
+      <c r="E1498">
+        <v>7</v>
+      </c>
+      <c r="F1498">
+        <v>18</v>
+      </c>
+      <c r="G1498">
+        <v>70</v>
+      </c>
+      <c r="H1498">
+        <v>89</v>
+      </c>
+      <c r="I1498">
+        <v>-19</v>
+      </c>
+      <c r="J1498">
+        <v>23</v>
+      </c>
+      <c r="K1498">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>12</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1499">
+        <v>33</v>
+      </c>
+      <c r="D1499">
+        <v>7</v>
+      </c>
+      <c r="E1499">
+        <v>8</v>
+      </c>
+      <c r="F1499">
+        <v>18</v>
+      </c>
+      <c r="G1499">
+        <v>57</v>
+      </c>
+      <c r="H1499">
+        <v>88</v>
+      </c>
+      <c r="I1499">
+        <v>-31</v>
+      </c>
+      <c r="J1499">
+        <v>22</v>
+      </c>
+      <c r="K1499">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>1</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1500">
+        <v>22</v>
+      </c>
+      <c r="D1500">
+        <v>13</v>
+      </c>
+      <c r="E1500">
+        <v>4</v>
+      </c>
+      <c r="F1500">
+        <v>5</v>
+      </c>
+      <c r="G1500">
+        <v>44</v>
+      </c>
+      <c r="H1500">
+        <v>29</v>
+      </c>
+      <c r="I1500">
+        <v>15</v>
+      </c>
+      <c r="J1500">
+        <v>30</v>
+      </c>
+      <c r="K1500">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>2</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1501">
+        <v>22</v>
+      </c>
+      <c r="D1501">
+        <v>12</v>
+      </c>
+      <c r="E1501">
+        <v>5</v>
+      </c>
+      <c r="F1501">
+        <v>5</v>
+      </c>
+      <c r="G1501">
+        <v>54</v>
+      </c>
+      <c r="H1501">
+        <v>36</v>
+      </c>
+      <c r="I1501">
+        <v>18</v>
+      </c>
+      <c r="J1501">
+        <v>29</v>
+      </c>
+      <c r="K1501">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>3</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1502">
+        <v>22</v>
+      </c>
+      <c r="D1502">
+        <v>11</v>
+      </c>
+      <c r="E1502">
+        <v>6</v>
+      </c>
+      <c r="F1502">
+        <v>5</v>
+      </c>
+      <c r="G1502">
+        <v>45</v>
+      </c>
+      <c r="H1502">
+        <v>35</v>
+      </c>
+      <c r="I1502">
+        <v>10</v>
+      </c>
+      <c r="J1502">
+        <v>28</v>
+      </c>
+      <c r="K1502">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>4</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1503">
+        <v>22</v>
+      </c>
+      <c r="D1503">
+        <v>11</v>
+      </c>
+      <c r="E1503">
+        <v>5</v>
+      </c>
+      <c r="F1503">
+        <v>6</v>
+      </c>
+      <c r="G1503">
+        <v>53</v>
+      </c>
+      <c r="H1503">
+        <v>44</v>
+      </c>
+      <c r="I1503">
+        <v>9</v>
+      </c>
+      <c r="J1503">
+        <v>27</v>
+      </c>
+      <c r="K1503">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>5</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1504">
+        <v>22</v>
+      </c>
+      <c r="D1504">
+        <v>11</v>
+      </c>
+      <c r="E1504">
+        <v>4</v>
+      </c>
+      <c r="F1504">
+        <v>7</v>
+      </c>
+      <c r="G1504">
+        <v>50</v>
+      </c>
+      <c r="H1504">
+        <v>30</v>
+      </c>
+      <c r="I1504">
+        <v>20</v>
+      </c>
+      <c r="J1504">
+        <v>26</v>
+      </c>
+      <c r="K1504">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>6</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1505">
+        <v>22</v>
+      </c>
+      <c r="D1505">
+        <v>8</v>
+      </c>
+      <c r="E1505">
+        <v>9</v>
+      </c>
+      <c r="F1505">
+        <v>5</v>
+      </c>
+      <c r="G1505">
+        <v>33</v>
+      </c>
+      <c r="H1505">
+        <v>32</v>
+      </c>
+      <c r="I1505">
+        <v>1</v>
+      </c>
+      <c r="J1505">
+        <v>25</v>
+      </c>
+      <c r="K1505">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>7</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1506">
+        <v>22</v>
+      </c>
+      <c r="D1506">
+        <v>9</v>
+      </c>
+      <c r="E1506">
+        <v>6</v>
+      </c>
+      <c r="F1506">
+        <v>7</v>
+      </c>
+      <c r="G1506">
+        <v>46</v>
+      </c>
+      <c r="H1506">
+        <v>34</v>
+      </c>
+      <c r="I1506">
+        <v>12</v>
+      </c>
+      <c r="J1506">
+        <v>24</v>
+      </c>
+      <c r="K1506">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>8</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1507">
+        <v>22</v>
+      </c>
+      <c r="D1507">
+        <v>9</v>
+      </c>
+      <c r="E1507">
+        <v>2</v>
+      </c>
+      <c r="F1507">
+        <v>11</v>
+      </c>
+      <c r="G1507">
+        <v>44</v>
+      </c>
+      <c r="H1507">
+        <v>43</v>
+      </c>
+      <c r="I1507">
+        <v>1</v>
+      </c>
+      <c r="J1507">
+        <v>20</v>
+      </c>
+      <c r="K1507">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>9</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1508">
+        <v>22</v>
+      </c>
+      <c r="D1508">
+        <v>6</v>
+      </c>
+      <c r="E1508">
+        <v>6</v>
+      </c>
+      <c r="F1508">
+        <v>10</v>
+      </c>
+      <c r="G1508">
+        <v>35</v>
+      </c>
+      <c r="H1508">
+        <v>39</v>
+      </c>
+      <c r="I1508">
+        <v>-4</v>
+      </c>
+      <c r="J1508">
+        <v>18</v>
+      </c>
+      <c r="K1508">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>10</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1509">
+        <v>22</v>
+      </c>
+      <c r="D1509">
+        <v>5</v>
+      </c>
+      <c r="E1509">
+        <v>5</v>
+      </c>
+      <c r="F1509">
+        <v>12</v>
+      </c>
+      <c r="G1509">
+        <v>37</v>
+      </c>
+      <c r="H1509">
+        <v>57</v>
+      </c>
+      <c r="I1509">
+        <v>-20</v>
+      </c>
+      <c r="J1509">
+        <v>15</v>
+      </c>
+      <c r="K1509">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>11</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1510">
+        <v>22</v>
+      </c>
+      <c r="D1510">
+        <v>4</v>
+      </c>
+      <c r="E1510">
+        <v>3</v>
+      </c>
+      <c r="F1510">
+        <v>15</v>
+      </c>
+      <c r="G1510">
+        <v>33</v>
+      </c>
+      <c r="H1510">
+        <v>65</v>
+      </c>
+      <c r="I1510">
+        <v>-32</v>
+      </c>
+      <c r="J1510">
+        <v>11</v>
+      </c>
+      <c r="K1510">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>12</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1511">
+        <v>22</v>
+      </c>
+      <c r="D1511">
+        <v>4</v>
+      </c>
+      <c r="E1511">
+        <v>3</v>
+      </c>
+      <c r="F1511">
+        <v>15</v>
+      </c>
+      <c r="G1511">
+        <v>30</v>
+      </c>
+      <c r="H1511">
+        <v>60</v>
+      </c>
+      <c r="I1511">
+        <v>-30</v>
+      </c>
+      <c r="J1511">
+        <v>11</v>
+      </c>
+      <c r="K1511">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>1</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1512">
+        <v>5</v>
+      </c>
+      <c r="D1512">
+        <v>4</v>
+      </c>
+      <c r="E1512">
+        <v>1</v>
+      </c>
+      <c r="F1512">
+        <v>0</v>
+      </c>
+      <c r="G1512">
+        <v>19</v>
+      </c>
+      <c r="H1512">
+        <v>10</v>
+      </c>
+      <c r="I1512">
+        <v>9</v>
+      </c>
+      <c r="J1512">
+        <v>9</v>
+      </c>
+      <c r="K1512">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>2</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1513">
+        <v>5</v>
+      </c>
+      <c r="D1513">
+        <v>3</v>
+      </c>
+      <c r="E1513">
+        <v>0</v>
+      </c>
+      <c r="F1513">
+        <v>2</v>
+      </c>
+      <c r="G1513">
+        <v>11</v>
+      </c>
+      <c r="H1513">
+        <v>13</v>
+      </c>
+      <c r="I1513">
+        <v>-2</v>
+      </c>
+      <c r="J1513">
+        <v>6</v>
+      </c>
+      <c r="K1513">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>3</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1514">
+        <v>5</v>
+      </c>
+      <c r="D1514">
+        <v>2</v>
+      </c>
+      <c r="E1514">
+        <v>1</v>
+      </c>
+      <c r="F1514">
+        <v>2</v>
+      </c>
+      <c r="G1514">
+        <v>5</v>
+      </c>
+      <c r="H1514">
+        <v>6</v>
+      </c>
+      <c r="I1514">
+        <v>-1</v>
+      </c>
+      <c r="J1514">
+        <v>5</v>
+      </c>
+      <c r="K1514">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>4</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1515">
+        <v>5</v>
+      </c>
+      <c r="D1515">
+        <v>2</v>
+      </c>
+      <c r="E1515">
+        <v>0</v>
+      </c>
+      <c r="F1515">
+        <v>3</v>
+      </c>
+      <c r="G1515">
+        <v>7</v>
+      </c>
+      <c r="H1515">
+        <v>7</v>
+      </c>
+      <c r="I1515">
+        <v>0</v>
+      </c>
+      <c r="J1515">
+        <v>4</v>
+      </c>
+      <c r="K1515">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>5</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1516">
+        <v>5</v>
+      </c>
+      <c r="D1516">
+        <v>2</v>
+      </c>
+      <c r="E1516">
+        <v>0</v>
+      </c>
+      <c r="F1516">
+        <v>3</v>
+      </c>
+      <c r="G1516">
+        <v>11</v>
+      </c>
+      <c r="H1516">
+        <v>12</v>
+      </c>
+      <c r="I1516">
+        <v>-1</v>
+      </c>
+      <c r="J1516">
+        <v>4</v>
+      </c>
+      <c r="K1516">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>6</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1517">
+        <v>5</v>
+      </c>
+      <c r="D1517">
+        <v>1</v>
+      </c>
+      <c r="E1517">
+        <v>0</v>
+      </c>
+      <c r="F1517">
+        <v>4</v>
+      </c>
+      <c r="G1517">
+        <v>9</v>
+      </c>
+      <c r="H1517">
+        <v>14</v>
+      </c>
+      <c r="I1517">
+        <v>-5</v>
+      </c>
+      <c r="J1517">
+        <v>2</v>
+      </c>
+      <c r="K1517">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>1</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1518">
+        <v>5</v>
+      </c>
+      <c r="D1518">
+        <v>4</v>
+      </c>
+      <c r="E1518">
+        <v>0</v>
+      </c>
+      <c r="F1518">
+        <v>1</v>
+      </c>
+      <c r="G1518">
+        <v>13</v>
+      </c>
+      <c r="H1518">
+        <v>7</v>
+      </c>
+      <c r="I1518">
+        <v>6</v>
+      </c>
+      <c r="J1518">
+        <v>8</v>
+      </c>
+      <c r="K1518">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>2</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1519">
+        <v>5</v>
+      </c>
+      <c r="D1519">
+        <v>3</v>
+      </c>
+      <c r="E1519">
+        <v>1</v>
+      </c>
+      <c r="F1519">
+        <v>1</v>
+      </c>
+      <c r="G1519">
+        <v>11</v>
+      </c>
+      <c r="H1519">
+        <v>8</v>
+      </c>
+      <c r="I1519">
+        <v>3</v>
+      </c>
+      <c r="J1519">
+        <v>7</v>
+      </c>
+      <c r="K1519">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>3</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1520">
+        <v>5</v>
+      </c>
+      <c r="D1520">
+        <v>2</v>
+      </c>
+      <c r="E1520">
+        <v>2</v>
+      </c>
+      <c r="F1520">
+        <v>1</v>
+      </c>
+      <c r="G1520">
+        <v>7</v>
+      </c>
+      <c r="H1520">
+        <v>7</v>
+      </c>
+      <c r="I1520">
+        <v>0</v>
+      </c>
+      <c r="J1520">
+        <v>6</v>
+      </c>
+      <c r="K1520">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>4</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1521">
+        <v>5</v>
+      </c>
+      <c r="D1521">
+        <v>2</v>
+      </c>
+      <c r="E1521">
+        <v>0</v>
+      </c>
+      <c r="F1521">
+        <v>3</v>
+      </c>
+      <c r="G1521">
+        <v>11</v>
+      </c>
+      <c r="H1521">
+        <v>13</v>
+      </c>
+      <c r="I1521">
+        <v>-2</v>
+      </c>
+      <c r="J1521">
+        <v>4</v>
+      </c>
+      <c r="K1521">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>5</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1522">
+        <v>5</v>
+      </c>
+      <c r="D1522">
+        <v>1</v>
+      </c>
+      <c r="E1522">
+        <v>1</v>
+      </c>
+      <c r="F1522">
+        <v>3</v>
+      </c>
+      <c r="G1522">
+        <v>12</v>
+      </c>
+      <c r="H1522">
+        <v>14</v>
+      </c>
+      <c r="I1522">
+        <v>-2</v>
+      </c>
+      <c r="J1522">
+        <v>3</v>
+      </c>
+      <c r="K1522">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>6</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1523">
+        <v>5</v>
+      </c>
+      <c r="D1523">
+        <v>1</v>
+      </c>
+      <c r="E1523">
+        <v>0</v>
+      </c>
+      <c r="F1523">
+        <v>4</v>
+      </c>
+      <c r="G1523">
+        <v>13</v>
+      </c>
+      <c r="H1523">
+        <v>18</v>
+      </c>
+      <c r="I1523">
+        <v>-5</v>
+      </c>
+      <c r="J1523">
+        <v>2</v>
+      </c>
+      <c r="K1523">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>1</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1524">
+        <v>1</v>
+      </c>
+      <c r="D1524">
+        <v>1</v>
+      </c>
+      <c r="E1524">
+        <v>0</v>
+      </c>
+      <c r="F1524">
+        <v>0</v>
+      </c>
+      <c r="G1524">
+        <v>1</v>
+      </c>
+      <c r="H1524">
+        <v>0</v>
+      </c>
+      <c r="I1524">
+        <v>1</v>
+      </c>
+      <c r="J1524">
+        <v>2</v>
+      </c>
+      <c r="K1524">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>2</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1525">
+        <v>1</v>
+      </c>
+      <c r="D1525">
+        <v>0</v>
+      </c>
+      <c r="E1525">
+        <v>0</v>
+      </c>
+      <c r="F1525">
+        <v>1</v>
+      </c>
+      <c r="G1525">
+        <v>0</v>
+      </c>
+      <c r="H1525">
+        <v>1</v>
+      </c>
+      <c r="I1525">
+        <v>-1</v>
+      </c>
+      <c r="J1525">
+        <v>0</v>
+      </c>
+      <c r="K1525">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>1</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1526">
+        <v>22</v>
+      </c>
+      <c r="D1526">
+        <v>12</v>
+      </c>
+      <c r="E1526">
+        <v>6</v>
+      </c>
+      <c r="F1526">
+        <v>4</v>
+      </c>
+      <c r="G1526">
+        <v>56</v>
+      </c>
+      <c r="H1526">
+        <v>33</v>
+      </c>
+      <c r="I1526">
+        <v>23</v>
+      </c>
+      <c r="J1526">
+        <v>30</v>
+      </c>
+      <c r="K1526">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>2</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1527">
+        <v>22</v>
+      </c>
+      <c r="D1527">
+        <v>12</v>
+      </c>
+      <c r="E1527">
+        <v>6</v>
+      </c>
+      <c r="F1527">
+        <v>4</v>
+      </c>
+      <c r="G1527">
+        <v>57</v>
+      </c>
+      <c r="H1527">
+        <v>42</v>
+      </c>
+      <c r="I1527">
+        <v>15</v>
+      </c>
+      <c r="J1527">
+        <v>30</v>
+      </c>
+      <c r="K1527">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>3</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1528">
+        <v>22</v>
+      </c>
+      <c r="D1528">
+        <v>11</v>
+      </c>
+      <c r="E1528">
+        <v>7</v>
+      </c>
+      <c r="F1528">
+        <v>4</v>
+      </c>
+      <c r="G1528">
+        <v>42</v>
+      </c>
+      <c r="H1528">
+        <v>30</v>
+      </c>
+      <c r="I1528">
+        <v>12</v>
+      </c>
+      <c r="J1528">
+        <v>29</v>
+      </c>
+      <c r="K1528">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>4</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1529">
+        <v>22</v>
+      </c>
+      <c r="D1529">
+        <v>10</v>
+      </c>
+      <c r="E1529">
+        <v>7</v>
+      </c>
+      <c r="F1529">
+        <v>5</v>
+      </c>
+      <c r="G1529">
+        <v>40</v>
+      </c>
+      <c r="H1529">
+        <v>32</v>
+      </c>
+      <c r="I1529">
+        <v>8</v>
+      </c>
+      <c r="J1529">
+        <v>27</v>
+      </c>
+      <c r="K1529">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>5</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1530">
+        <v>22</v>
+      </c>
+      <c r="D1530">
+        <v>9</v>
+      </c>
+      <c r="E1530">
+        <v>7</v>
+      </c>
+      <c r="F1530">
+        <v>6</v>
+      </c>
+      <c r="G1530">
+        <v>53</v>
+      </c>
+      <c r="H1530">
+        <v>47</v>
+      </c>
+      <c r="I1530">
+        <v>6</v>
+      </c>
+      <c r="J1530">
+        <v>25</v>
+      </c>
+      <c r="K1530">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>6</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1531">
+        <v>22</v>
+      </c>
+      <c r="D1531">
+        <v>9</v>
+      </c>
+      <c r="E1531">
+        <v>4</v>
+      </c>
+      <c r="F1531">
+        <v>9</v>
+      </c>
+      <c r="G1531">
+        <v>53</v>
+      </c>
+      <c r="H1531">
+        <v>51</v>
+      </c>
+      <c r="I1531">
+        <v>2</v>
+      </c>
+      <c r="J1531">
+        <v>22</v>
+      </c>
+      <c r="K1531">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>7</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1532">
+        <v>22</v>
+      </c>
+      <c r="D1532">
+        <v>8</v>
+      </c>
+      <c r="E1532">
+        <v>5</v>
+      </c>
+      <c r="F1532">
+        <v>9</v>
+      </c>
+      <c r="G1532">
+        <v>47</v>
+      </c>
+      <c r="H1532">
+        <v>51</v>
+      </c>
+      <c r="I1532">
+        <v>-4</v>
+      </c>
+      <c r="J1532">
+        <v>21</v>
+      </c>
+      <c r="K1532">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>8</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1533">
+        <v>22</v>
+      </c>
+      <c r="D1533">
+        <v>9</v>
+      </c>
+      <c r="E1533">
+        <v>3</v>
+      </c>
+      <c r="F1533">
+        <v>10</v>
+      </c>
+      <c r="G1533">
+        <v>39</v>
+      </c>
+      <c r="H1533">
+        <v>46</v>
+      </c>
+      <c r="I1533">
+        <v>-7</v>
+      </c>
+      <c r="J1533">
+        <v>21</v>
+      </c>
+      <c r="K1533">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>9</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1534">
+        <v>22</v>
+      </c>
+      <c r="D1534">
+        <v>5</v>
+      </c>
+      <c r="E1534">
+        <v>7</v>
+      </c>
+      <c r="F1534">
+        <v>10</v>
+      </c>
+      <c r="G1534">
+        <v>53</v>
+      </c>
+      <c r="H1534">
+        <v>60</v>
+      </c>
+      <c r="I1534">
+        <v>-7</v>
+      </c>
+      <c r="J1534">
+        <v>17</v>
+      </c>
+      <c r="K1534">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>10</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1535">
+        <v>22</v>
+      </c>
+      <c r="D1535">
+        <v>6</v>
+      </c>
+      <c r="E1535">
+        <v>4</v>
+      </c>
+      <c r="F1535">
+        <v>12</v>
+      </c>
+      <c r="G1535">
+        <v>39</v>
+      </c>
+      <c r="H1535">
+        <v>47</v>
+      </c>
+      <c r="I1535">
+        <v>-8</v>
+      </c>
+      <c r="J1535">
+        <v>16</v>
+      </c>
+      <c r="K1535">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>11</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1536">
+        <v>22</v>
+      </c>
+      <c r="D1536">
+        <v>4</v>
+      </c>
+      <c r="E1536">
+        <v>6</v>
+      </c>
+      <c r="F1536">
+        <v>12</v>
+      </c>
+      <c r="G1536">
+        <v>33</v>
+      </c>
+      <c r="H1536">
+        <v>50</v>
+      </c>
+      <c r="I1536">
+        <v>-17</v>
+      </c>
+      <c r="J1536">
+        <v>14</v>
+      </c>
+      <c r="K1536">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>12</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1537">
+        <v>22</v>
+      </c>
+      <c r="D1537">
+        <v>3</v>
+      </c>
+      <c r="E1537">
+        <v>6</v>
+      </c>
+      <c r="F1537">
+        <v>13</v>
+      </c>
+      <c r="G1537">
+        <v>38</v>
+      </c>
+      <c r="H1537">
+        <v>61</v>
+      </c>
+      <c r="I1537">
+        <v>-23</v>
+      </c>
+      <c r="J1537">
+        <v>12</v>
+      </c>
+      <c r="K1537">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>1</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1538">
+        <v>1</v>
+      </c>
+      <c r="D1538">
+        <v>1</v>
+      </c>
+      <c r="E1538">
+        <v>0</v>
+      </c>
+      <c r="F1538">
+        <v>0</v>
+      </c>
+      <c r="G1538">
+        <v>1</v>
+      </c>
+      <c r="H1538">
+        <v>0</v>
+      </c>
+      <c r="I1538">
+        <v>1</v>
+      </c>
+      <c r="J1538">
+        <v>2</v>
+      </c>
+      <c r="K1538">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>2</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1539">
+        <v>1</v>
+      </c>
+      <c r="D1539">
+        <v>0</v>
+      </c>
+      <c r="E1539">
+        <v>0</v>
+      </c>
+      <c r="F1539">
+        <v>1</v>
+      </c>
+      <c r="G1539">
+        <v>0</v>
+      </c>
+      <c r="H1539">
+        <v>1</v>
+      </c>
+      <c r="I1539">
+        <v>-1</v>
+      </c>
+      <c r="J1539">
+        <v>0</v>
+      </c>
+      <c r="K1539">
+        <v>1950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
